--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9524967377142217</v>
+      </c>
+      <c r="D3">
         <v>1.194199767364092</v>
-      </c>
-      <c r="D3">
-        <v>0.9524967377142217</v>
       </c>
       <c r="E3">
         <v>1.089401425197432</v>
       </c>
       <c r="F3">
+        <v>0.9524967377142217</v>
+      </c>
+      <c r="G3">
+        <v>1.062836744861621</v>
+      </c>
+      <c r="H3">
         <v>1.194199767364092</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>0.9564177209619993</v>
+      </c>
+      <c r="J3">
         <v>0.9798442508951452</v>
-      </c>
-      <c r="H3">
-        <v>0.9564177209619993</v>
-      </c>
-      <c r="I3">
-        <v>1.062836744861621</v>
-      </c>
-      <c r="J3">
-        <v>0.9524967377142217</v>
       </c>
       <c r="K3">
         <v>1.194199767364092</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9803550275995809</v>
+      </c>
+      <c r="D4">
         <v>1.42547908875636</v>
-      </c>
-      <c r="D4">
-        <v>0.9803550275995809</v>
       </c>
       <c r="E4">
         <v>1.166007025396772</v>
       </c>
       <c r="F4">
+        <v>0.9803550275995809</v>
+      </c>
+      <c r="G4">
+        <v>1.165921530360045</v>
+      </c>
+      <c r="H4">
         <v>1.42547908875636</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>0.894286866283914</v>
+      </c>
+      <c r="J4">
         <v>1.02184665230298</v>
-      </c>
-      <c r="H4">
-        <v>0.8942868662839142</v>
-      </c>
-      <c r="I4">
-        <v>1.165921530360045</v>
-      </c>
-      <c r="J4">
-        <v>0.9803550275995809</v>
       </c>
       <c r="K4">
         <v>1.42547908875636</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.301760468028191</v>
+      </c>
+      <c r="D5">
         <v>2.04274619215047</v>
-      </c>
-      <c r="D5">
-        <v>1.301760468028191</v>
       </c>
       <c r="E5">
         <v>1.309245023634202</v>
       </c>
       <c r="F5">
+        <v>1.301760468028191</v>
+      </c>
+      <c r="G5">
+        <v>1.56405991182896</v>
+      </c>
+      <c r="H5">
         <v>2.04274619215047</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>0.9320519558375179</v>
+      </c>
+      <c r="J5">
         <v>1.285358562481123</v>
-      </c>
-      <c r="H5">
-        <v>0.9320519558375179</v>
-      </c>
-      <c r="I5">
-        <v>1.56405991182896</v>
-      </c>
-      <c r="J5">
-        <v>1.301760468028191</v>
       </c>
       <c r="K5">
         <v>2.04274619215047</v>
@@ -800,31 +812,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.610702624751263</v>
+        <v>0.3159496272562012</v>
       </c>
       <c r="D6">
-        <v>0.3159496272562012</v>
+        <v>3.610702624751261</v>
       </c>
       <c r="E6">
         <v>2.617809222905027</v>
       </c>
       <c r="F6">
-        <v>3.610702624751263</v>
+        <v>0.3159496272562012</v>
       </c>
       <c r="G6">
+        <v>1.456748477498572</v>
+      </c>
+      <c r="H6">
+        <v>3.610702624751261</v>
+      </c>
+      <c r="I6">
+        <v>0.7869872232547134</v>
+      </c>
+      <c r="J6">
         <v>1.224197877232904</v>
       </c>
-      <c r="H6">
-        <v>0.7869872232547134</v>
-      </c>
-      <c r="I6">
-        <v>1.456748477498573</v>
-      </c>
-      <c r="J6">
-        <v>0.3159496272562012</v>
-      </c>
       <c r="K6">
-        <v>3.610702624751263</v>
+        <v>3.610702624751261</v>
       </c>
       <c r="L6">
         <v>2.617809222905027</v>
@@ -851,7 +863,7 @@
         <v>2.538791024915938</v>
       </c>
       <c r="T6">
-        <v>1.668732508816447</v>
+        <v>1.668732508816446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,43 +874,43 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.998152189247023</v>
+      </c>
+      <c r="D7">
         <v>1.000836804429909</v>
       </c>
-      <c r="D7">
-        <v>0.9981521892470232</v>
-      </c>
       <c r="E7">
-        <v>0.999837103279453</v>
+        <v>0.9998371032794533</v>
       </c>
       <c r="F7">
+        <v>0.998152189247023</v>
+      </c>
+      <c r="G7">
+        <v>0.9987657977820161</v>
+      </c>
+      <c r="H7">
         <v>1.000836804429909</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <v>0.9982089253358549</v>
+      </c>
+      <c r="J7">
         <v>1.038777102078534</v>
-      </c>
-      <c r="H7">
-        <v>0.9982089253358558</v>
-      </c>
-      <c r="I7">
-        <v>0.9987657977820156</v>
-      </c>
-      <c r="J7">
-        <v>0.9981521892470232</v>
       </c>
       <c r="K7">
         <v>1.000836804429909</v>
       </c>
       <c r="L7">
-        <v>0.999837103279453</v>
+        <v>0.9998371032794533</v>
       </c>
       <c r="M7">
-        <v>0.9989946462632381</v>
+        <v>0.9989946462632382</v>
       </c>
       <c r="N7">
-        <v>0.9989946462632381</v>
+        <v>0.9989946462632382</v>
       </c>
       <c r="O7">
-        <v>0.998732739287444</v>
+        <v>0.9987327392874438</v>
       </c>
       <c r="P7">
         <v>0.9996086989854618</v>
@@ -924,58 +936,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00555433452026</v>
+        <v>0.9910168211839187</v>
       </c>
       <c r="D8">
-        <v>0.9910168211839202</v>
+        <v>1.005554334520259</v>
       </c>
       <c r="E8">
-        <v>1.003396603100496</v>
+        <v>1.003396603100497</v>
       </c>
       <c r="F8">
-        <v>1.00555433452026</v>
+        <v>0.9910168211839187</v>
       </c>
       <c r="G8">
-        <v>1.085785246038391</v>
+        <v>0.9980268167508443</v>
       </c>
       <c r="H8">
-        <v>0.9977945552678966</v>
+        <v>1.005554334520259</v>
       </c>
       <c r="I8">
-        <v>0.9980268167508438</v>
+        <v>0.9977945552678963</v>
       </c>
       <c r="J8">
-        <v>0.9910168211839202</v>
+        <v>1.085785246038397</v>
       </c>
       <c r="K8">
-        <v>1.00555433452026</v>
+        <v>1.005554334520259</v>
       </c>
       <c r="L8">
-        <v>1.003396603100496</v>
+        <v>1.003396603100497</v>
       </c>
       <c r="M8">
-        <v>0.9972067121422081</v>
+        <v>0.9972067121422077</v>
       </c>
       <c r="N8">
-        <v>0.9972067121422081</v>
+        <v>0.9972067121422077</v>
       </c>
       <c r="O8">
-        <v>0.9974026598507709</v>
+        <v>0.9974026598507706</v>
       </c>
       <c r="P8">
-        <v>0.9999892529348919</v>
+        <v>0.9999892529348916</v>
       </c>
       <c r="Q8">
-        <v>0.999989252934892</v>
+        <v>0.9999892529348915</v>
       </c>
       <c r="R8">
-        <v>1.001380523331234</v>
+        <v>1.001380523331233</v>
       </c>
       <c r="S8">
-        <v>1.001380523331234</v>
+        <v>1.001380523331233</v>
       </c>
       <c r="T8">
-        <v>1.013595729476968</v>
+        <v>1.013595729476969</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9931165782886594</v>
+      </c>
+      <c r="D9">
         <v>1.056797368064967</v>
-      </c>
-      <c r="D9">
-        <v>0.9931165782886594</v>
       </c>
       <c r="E9">
         <v>1.027275058364426</v>
       </c>
       <c r="F9">
+        <v>0.9931165782886594</v>
+      </c>
+      <c r="G9">
+        <v>0.9931881049268663</v>
+      </c>
+      <c r="H9">
         <v>1.056797368064967</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>0.9940786368269641</v>
+      </c>
+      <c r="J9">
         <v>1.088949796547149</v>
-      </c>
-      <c r="H9">
-        <v>0.9940786368269641</v>
-      </c>
-      <c r="I9">
-        <v>0.9931881049268663</v>
-      </c>
-      <c r="J9">
-        <v>0.9931165782886594</v>
       </c>
       <c r="K9">
         <v>1.056797368064967</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9916359396175717</v>
+      </c>
+      <c r="D10">
         <v>1.052716889487143</v>
-      </c>
-      <c r="D10">
-        <v>0.9916359396175717</v>
       </c>
       <c r="E10">
         <v>1.021979463467624</v>
       </c>
       <c r="F10">
+        <v>0.9916359396175717</v>
+      </c>
+      <c r="G10">
+        <v>1.000383072902922</v>
+      </c>
+      <c r="H10">
         <v>1.052716889487143</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>0.9883515913479268</v>
+      </c>
+      <c r="J10">
         <v>1.248222462689812</v>
-      </c>
-      <c r="H10">
-        <v>0.9883515913479268</v>
-      </c>
-      <c r="I10">
-        <v>1.000383072902922</v>
-      </c>
-      <c r="J10">
-        <v>0.9916359396175717</v>
       </c>
       <c r="K10">
         <v>1.052716889487143</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9856490710210253</v>
+      </c>
+      <c r="D11">
         <v>1.203147470454537</v>
-      </c>
-      <c r="D11">
-        <v>0.9856490710210253</v>
       </c>
       <c r="E11">
         <v>1.121743036098717</v>
       </c>
       <c r="F11">
+        <v>0.9856490710210253</v>
+      </c>
+      <c r="G11">
+        <v>0.9661714376737391</v>
+      </c>
+      <c r="H11">
         <v>1.203147470454537</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <v>0.9677490637288032</v>
+      </c>
+      <c r="J11">
         <v>1.312288514500435</v>
-      </c>
-      <c r="H11">
-        <v>0.9677490637288034</v>
-      </c>
-      <c r="I11">
-        <v>0.9661714376737391</v>
-      </c>
-      <c r="J11">
-        <v>0.9856490710210253</v>
       </c>
       <c r="K11">
         <v>1.203147470454537</v>
@@ -1172,43 +1184,43 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.2731973417197705</v>
+      </c>
+      <c r="D12">
         <v>1.83906027372987</v>
       </c>
-      <c r="D12">
-        <v>0.2731973417197704</v>
-      </c>
       <c r="E12">
-        <v>0.5352861205437539</v>
+        <v>0.5352861205437532</v>
       </c>
       <c r="F12">
+        <v>0.2731973417197705</v>
+      </c>
+      <c r="G12">
+        <v>1.076091487110441</v>
+      </c>
+      <c r="H12">
         <v>1.83906027372987</v>
       </c>
-      <c r="G12">
-        <v>0.001005879704710414</v>
-      </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.280450305905803</v>
       </c>
-      <c r="I12">
-        <v>1.076091487110441</v>
-      </c>
       <c r="J12">
-        <v>0.2731973417197704</v>
+        <v>0.001005879704710416</v>
       </c>
       <c r="K12">
         <v>1.83906027372987</v>
       </c>
       <c r="L12">
-        <v>0.5352861205437539</v>
+        <v>0.5352861205437532</v>
       </c>
       <c r="M12">
-        <v>0.4042417311317622</v>
+        <v>0.4042417311317619</v>
       </c>
       <c r="N12">
-        <v>0.4042417311317622</v>
+        <v>0.4042417311317619</v>
       </c>
       <c r="O12">
-        <v>0.6963112560564424</v>
+        <v>0.6963112560564423</v>
       </c>
       <c r="P12">
         <v>0.8825145786644647</v>
@@ -1234,40 +1246,40 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996285566817856</v>
+        <v>1.598588566013339</v>
       </c>
       <c r="D13">
-        <v>1.59858856601334</v>
+        <v>0.9996285566817857</v>
       </c>
       <c r="E13">
         <v>1.25574643306191</v>
       </c>
       <c r="F13">
-        <v>0.9996285566817856</v>
+        <v>1.598588566013339</v>
       </c>
       <c r="G13">
+        <v>1.063615239376096</v>
+      </c>
+      <c r="H13">
+        <v>0.9996285566817857</v>
+      </c>
+      <c r="I13">
+        <v>0.6971098454197413</v>
+      </c>
+      <c r="J13">
         <v>0.4158317650499002</v>
       </c>
-      <c r="H13">
-        <v>0.6971098454197417</v>
-      </c>
-      <c r="I13">
-        <v>1.063615239376097</v>
-      </c>
-      <c r="J13">
-        <v>1.59858856601334</v>
-      </c>
       <c r="K13">
-        <v>0.9996285566817856</v>
+        <v>0.9996285566817857</v>
       </c>
       <c r="L13">
         <v>1.25574643306191</v>
       </c>
       <c r="M13">
-        <v>1.427167499537625</v>
+        <v>1.427167499537624</v>
       </c>
       <c r="N13">
-        <v>1.427167499537625</v>
+        <v>1.427167499537624</v>
       </c>
       <c r="O13">
         <v>1.183814948164997</v>
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.093682992341115</v>
+        <v>0.4647339410847121</v>
       </c>
       <c r="D14">
-        <v>0.4647339410847124</v>
+        <v>1.093682992341114</v>
       </c>
       <c r="E14">
-        <v>0.5060459281015399</v>
+        <v>0.5060459281015396</v>
       </c>
       <c r="F14">
-        <v>1.093682992341115</v>
+        <v>0.4647339410847121</v>
       </c>
       <c r="G14">
-        <v>0.0008663789089439916</v>
+        <v>0.951164204545662</v>
       </c>
       <c r="H14">
-        <v>1.844118206353424</v>
+        <v>1.093682992341114</v>
       </c>
       <c r="I14">
-        <v>0.9511642045456621</v>
+        <v>1.844118206353425</v>
       </c>
       <c r="J14">
-        <v>0.4647339410847124</v>
+        <v>0.000866378908943993</v>
       </c>
       <c r="K14">
-        <v>1.093682992341115</v>
+        <v>1.093682992341114</v>
       </c>
       <c r="L14">
-        <v>0.5060459281015399</v>
+        <v>0.5060459281015396</v>
       </c>
       <c r="M14">
-        <v>0.4853899345931262</v>
+        <v>0.4853899345931258</v>
       </c>
       <c r="N14">
-        <v>0.4853899345931262</v>
+        <v>0.4853899345931258</v>
       </c>
       <c r="O14">
-        <v>0.9382993585132257</v>
+        <v>0.9382993585132255</v>
       </c>
       <c r="P14">
-        <v>0.688154287175789</v>
+        <v>0.6881542871757887</v>
       </c>
       <c r="Q14">
-        <v>0.688154287175789</v>
+        <v>0.6881542871757887</v>
       </c>
       <c r="R14">
-        <v>0.7895364634671205</v>
+        <v>0.7895364634671201</v>
       </c>
       <c r="S14">
-        <v>0.7895364634671205</v>
+        <v>0.7895364634671201</v>
       </c>
       <c r="T14">
-        <v>0.8101019418892329</v>
+        <v>0.8101019418892328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3818635157819932</v>
+        <v>1.978024699327322</v>
       </c>
       <c r="D15">
-        <v>1.978024699327322</v>
+        <v>0.3818635157819933</v>
       </c>
       <c r="E15">
         <v>1.292266914514485</v>
       </c>
       <c r="F15">
-        <v>0.3818635157819932</v>
+        <v>1.978024699327322</v>
       </c>
       <c r="G15">
+        <v>0.7842549190120931</v>
+      </c>
+      <c r="H15">
+        <v>0.3818635157819933</v>
+      </c>
+      <c r="I15">
+        <v>0.8117844049184391</v>
+      </c>
+      <c r="J15">
         <v>0.4346537744456072</v>
       </c>
-      <c r="H15">
-        <v>0.8117844049184391</v>
-      </c>
-      <c r="I15">
-        <v>0.7842549190120931</v>
-      </c>
-      <c r="J15">
-        <v>1.978024699327322</v>
-      </c>
       <c r="K15">
-        <v>0.3818635157819932</v>
+        <v>0.3818635157819933</v>
       </c>
       <c r="L15">
         <v>1.292266914514485</v>
@@ -1400,13 +1412,13 @@
         <v>1.217385043207933</v>
       </c>
       <c r="Q15">
-        <v>1.217385043207933</v>
+        <v>1.217385043207934</v>
       </c>
       <c r="R15">
-        <v>1.008504661351448</v>
+        <v>1.008504661351449</v>
       </c>
       <c r="S15">
-        <v>1.008504661351448</v>
+        <v>1.008504661351449</v>
       </c>
       <c r="T15">
         <v>0.9471413713333233</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.005470664859594</v>
+        <v>0.1936837307275016</v>
       </c>
       <c r="D16">
-        <v>1.003285544992341</v>
+        <v>4.26961313373761</v>
       </c>
       <c r="E16">
-        <v>1.002767859393988</v>
+        <v>2.277003800635632</v>
       </c>
       <c r="F16">
-        <v>1.005470664859594</v>
+        <v>0.1936837307275016</v>
       </c>
       <c r="G16">
-        <v>1.029455886985675</v>
+        <v>2.265051684076012</v>
       </c>
       <c r="H16">
-        <v>1.000573040811203</v>
+        <v>4.26961313373761</v>
       </c>
       <c r="I16">
-        <v>0.9914131497501756</v>
+        <v>0.2014977008101684</v>
       </c>
       <c r="J16">
-        <v>1.003285544992341</v>
+        <v>0.8107498911201552</v>
       </c>
       <c r="K16">
-        <v>1.005470664859594</v>
+        <v>4.26961313373761</v>
       </c>
       <c r="L16">
-        <v>1.002767859393988</v>
+        <v>2.277003800635632</v>
       </c>
       <c r="M16">
-        <v>1.003026702193165</v>
+        <v>1.235343765681567</v>
       </c>
       <c r="N16">
-        <v>1.003026702193165</v>
+        <v>1.235343765681567</v>
       </c>
       <c r="O16">
-        <v>1.002208815065844</v>
+        <v>0.8907284107244341</v>
       </c>
       <c r="P16">
-        <v>1.003841356415308</v>
+        <v>2.246766888366915</v>
       </c>
       <c r="Q16">
-        <v>1.003841356415308</v>
+        <v>2.246766888366915</v>
       </c>
       <c r="R16">
-        <v>1.00424868352638</v>
+        <v>2.752478449709589</v>
       </c>
       <c r="S16">
-        <v>1.00424868352638</v>
+        <v>2.752478449709589</v>
       </c>
       <c r="T16">
-        <v>1.00549435779883</v>
+        <v>1.669599990184513</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9869058304808177</v>
+        <v>0.3882023659896113</v>
       </c>
       <c r="D17">
-        <v>1.011457948038119</v>
+        <v>3.147202455530158</v>
       </c>
       <c r="E17">
-        <v>0.9816500240197739</v>
+        <v>1.858697254895806</v>
       </c>
       <c r="F17">
-        <v>0.9869058304808177</v>
+        <v>0.3882023659896113</v>
       </c>
       <c r="G17">
-        <v>1.033447069278884</v>
+        <v>1.831091645571395</v>
       </c>
       <c r="H17">
-        <v>0.9943102434921866</v>
+        <v>3.147202455530158</v>
       </c>
       <c r="I17">
-        <v>1.006154373979823</v>
+        <v>0.4028987407952649</v>
       </c>
       <c r="J17">
-        <v>1.011457948038119</v>
+        <v>1.644746329537791</v>
       </c>
       <c r="K17">
-        <v>0.9869058304808177</v>
+        <v>3.147202455530158</v>
       </c>
       <c r="L17">
-        <v>0.9816500240197739</v>
+        <v>1.858697254895806</v>
       </c>
       <c r="M17">
-        <v>0.9965539860289463</v>
+        <v>1.123449810442709</v>
       </c>
       <c r="N17">
-        <v>0.9965539860289463</v>
+        <v>1.123449810442709</v>
       </c>
       <c r="O17">
-        <v>0.9958060718500263</v>
+        <v>0.8832661205602276</v>
       </c>
       <c r="P17">
-        <v>0.9933379341795701</v>
+        <v>1.798034025471859</v>
       </c>
       <c r="Q17">
-        <v>0.9933379341795701</v>
+        <v>1.798034025471859</v>
       </c>
       <c r="R17">
-        <v>0.9917299082548819</v>
+        <v>2.135326132986433</v>
       </c>
       <c r="S17">
-        <v>0.9917299082548819</v>
+        <v>2.135326132986433</v>
       </c>
       <c r="T17">
-        <v>1.002320914881601</v>
+        <v>1.545473132053337</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.238870533510539</v>
+        <v>0.7844045833580805</v>
       </c>
       <c r="D18">
-        <v>1.035922434709734</v>
+        <v>0.9392070434580656</v>
       </c>
       <c r="E18">
-        <v>1.084776485082961</v>
+        <v>1.046033119235237</v>
       </c>
       <c r="F18">
-        <v>1.238870533510539</v>
+        <v>0.7844045833580805</v>
       </c>
       <c r="G18">
-        <v>1.062745337311883</v>
+        <v>0.9709184064768067</v>
       </c>
       <c r="H18">
-        <v>0.9945718191354025</v>
+        <v>0.9392070434580656</v>
       </c>
       <c r="I18">
-        <v>0.9875159159470298</v>
+        <v>0.7964139256793</v>
       </c>
       <c r="J18">
-        <v>1.035922434709734</v>
+        <v>3.266641782700807</v>
       </c>
       <c r="K18">
-        <v>1.238870533510539</v>
+        <v>0.9392070434580656</v>
       </c>
       <c r="L18">
-        <v>1.084776485082961</v>
+        <v>1.046033119235237</v>
       </c>
       <c r="M18">
-        <v>1.060349459896347</v>
+        <v>0.9152188512966586</v>
       </c>
       <c r="N18">
-        <v>1.060349459896347</v>
+        <v>0.9152188512966586</v>
       </c>
       <c r="O18">
-        <v>1.038423579642699</v>
+        <v>0.8756172094242057</v>
       </c>
       <c r="P18">
-        <v>1.119856484434411</v>
+        <v>0.923214915350461</v>
       </c>
       <c r="Q18">
-        <v>1.119856484434411</v>
+        <v>0.923214915350461</v>
       </c>
       <c r="R18">
-        <v>1.149609996703443</v>
+        <v>0.9272129473773622</v>
       </c>
       <c r="S18">
-        <v>1.149609996703443</v>
+        <v>0.9272129473773622</v>
       </c>
       <c r="T18">
-        <v>1.067400420949591</v>
+        <v>1.300603143484716</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.231902033266522</v>
+      </c>
+      <c r="D19">
+        <v>0.8391730196976547</v>
+      </c>
+      <c r="E19">
+        <v>0.9277505913153256</v>
+      </c>
+      <c r="F19">
+        <v>1.231902033266522</v>
+      </c>
+      <c r="G19">
+        <v>0.9682291789550875</v>
+      </c>
+      <c r="H19">
+        <v>0.8391730196976547</v>
+      </c>
+      <c r="I19">
+        <v>0.7119336935126896</v>
+      </c>
+      <c r="J19">
+        <v>4.170274478422375</v>
+      </c>
+      <c r="K19">
+        <v>0.8391730196976547</v>
+      </c>
+      <c r="L19">
+        <v>0.9277505913153256</v>
+      </c>
+      <c r="M19">
+        <v>1.079826312290924</v>
+      </c>
+      <c r="N19">
+        <v>1.079826312290924</v>
+      </c>
+      <c r="O19">
+        <v>0.9571954393648455</v>
+      </c>
+      <c r="P19">
+        <v>0.9996085480931672</v>
+      </c>
+      <c r="Q19">
+        <v>0.9996085480931672</v>
+      </c>
+      <c r="R19">
+        <v>0.9594996659942892</v>
+      </c>
+      <c r="S19">
+        <v>0.9594996659942892</v>
+      </c>
+      <c r="T19">
+        <v>1.474877165861609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.003285544992341</v>
+      </c>
+      <c r="D20">
+        <v>1.005470664859596</v>
+      </c>
+      <c r="E20">
+        <v>1.002767859393989</v>
+      </c>
+      <c r="F20">
+        <v>1.003285544992341</v>
+      </c>
+      <c r="G20">
+        <v>0.9914131497501767</v>
+      </c>
+      <c r="H20">
+        <v>1.005470664859596</v>
+      </c>
+      <c r="I20">
+        <v>1.000573040811203</v>
+      </c>
+      <c r="J20">
+        <v>1.029455886985674</v>
+      </c>
+      <c r="K20">
+        <v>1.005470664859596</v>
+      </c>
+      <c r="L20">
+        <v>1.002767859393989</v>
+      </c>
+      <c r="M20">
+        <v>1.003026702193165</v>
+      </c>
+      <c r="N20">
+        <v>1.003026702193165</v>
+      </c>
+      <c r="O20">
+        <v>1.002208815065844</v>
+      </c>
+      <c r="P20">
+        <v>1.003841356415309</v>
+      </c>
+      <c r="Q20">
+        <v>1.003841356415309</v>
+      </c>
+      <c r="R20">
+        <v>1.004248683526381</v>
+      </c>
+      <c r="S20">
+        <v>1.004248683526381</v>
+      </c>
+      <c r="T20">
+        <v>1.00549435779883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.011457948038118</v>
+      </c>
+      <c r="D21">
+        <v>0.9869058304808186</v>
+      </c>
+      <c r="E21">
+        <v>0.9816500240197764</v>
+      </c>
+      <c r="F21">
+        <v>1.011457948038118</v>
+      </c>
+      <c r="G21">
+        <v>1.006154373979824</v>
+      </c>
+      <c r="H21">
+        <v>0.9869058304808186</v>
+      </c>
+      <c r="I21">
+        <v>0.9943102434921866</v>
+      </c>
+      <c r="J21">
+        <v>1.033447069278884</v>
+      </c>
+      <c r="K21">
+        <v>0.9869058304808186</v>
+      </c>
+      <c r="L21">
+        <v>0.9816500240197764</v>
+      </c>
+      <c r="M21">
+        <v>0.996553986028947</v>
+      </c>
+      <c r="N21">
+        <v>0.996553986028947</v>
+      </c>
+      <c r="O21">
+        <v>0.9958060718500268</v>
+      </c>
+      <c r="P21">
+        <v>0.9933379341795708</v>
+      </c>
+      <c r="Q21">
+        <v>0.9933379341795709</v>
+      </c>
+      <c r="R21">
+        <v>0.9917299082548828</v>
+      </c>
+      <c r="S21">
+        <v>0.9917299082548828</v>
+      </c>
+      <c r="T21">
+        <v>1.002320914881601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.035922434709734</v>
+      </c>
+      <c r="D22">
+        <v>1.238870533510542</v>
+      </c>
+      <c r="E22">
+        <v>1.084776485082962</v>
+      </c>
+      <c r="F22">
+        <v>1.035922434709734</v>
+      </c>
+      <c r="G22">
+        <v>0.9875159159470309</v>
+      </c>
+      <c r="H22">
+        <v>1.238870533510542</v>
+      </c>
+      <c r="I22">
+        <v>0.9945718191354027</v>
+      </c>
+      <c r="J22">
+        <v>1.062745337311881</v>
+      </c>
+      <c r="K22">
+        <v>1.238870533510542</v>
+      </c>
+      <c r="L22">
+        <v>1.084776485082962</v>
+      </c>
+      <c r="M22">
+        <v>1.060349459896348</v>
+      </c>
+      <c r="N22">
+        <v>1.060349459896348</v>
+      </c>
+      <c r="O22">
+        <v>1.038423579642699</v>
+      </c>
+      <c r="P22">
+        <v>1.119856484434412</v>
+      </c>
+      <c r="Q22">
+        <v>1.119856484434412</v>
+      </c>
+      <c r="R22">
+        <v>1.149609996703445</v>
+      </c>
+      <c r="S22">
+        <v>1.149609996703445</v>
+      </c>
+      <c r="T22">
+        <v>1.067400420949592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.172517873308326</v>
+      </c>
+      <c r="D23">
         <v>1.16482048622945</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>0.9642058844213766</v>
+      </c>
+      <c r="F23">
         <v>1.172517873308326</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.161691591083931</v>
+      </c>
+      <c r="H23">
+        <v>1.16482048622945</v>
+      </c>
+      <c r="I23">
+        <v>1.008824488790881</v>
+      </c>
+      <c r="J23">
+        <v>1.170367652890054</v>
+      </c>
+      <c r="K23">
+        <v>1.16482048622945</v>
+      </c>
+      <c r="L23">
         <v>0.9642058844213766</v>
       </c>
-      <c r="F19">
-        <v>1.16482048622945</v>
-      </c>
-      <c r="G19">
-        <v>1.170367652890054</v>
-      </c>
-      <c r="H19">
-        <v>1.008824488790881</v>
-      </c>
-      <c r="I19">
-        <v>1.161691591083931</v>
-      </c>
-      <c r="J19">
-        <v>1.172517873308326</v>
-      </c>
-      <c r="K19">
-        <v>1.16482048622945</v>
-      </c>
-      <c r="L19">
-        <v>0.9642058844213766</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.068361878864851</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.068361878864851</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.048516082173528</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.100514747986384</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.100514747986384</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.116591182547151</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.116591182547151</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.107071329454003</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9524967377142217</v>
+        <v>0.7545755249224223</v>
       </c>
       <c r="D3">
-        <v>1.194199767364092</v>
+        <v>0.985764631021066</v>
       </c>
       <c r="E3">
-        <v>1.089401425197432</v>
+        <v>1.031946406007745</v>
       </c>
       <c r="F3">
-        <v>0.9524967377142217</v>
+        <v>0.7545755249224223</v>
       </c>
       <c r="G3">
-        <v>1.062836744861621</v>
+        <v>0.9754612225118857</v>
       </c>
       <c r="H3">
-        <v>1.194199767364092</v>
+        <v>0.985764631021066</v>
       </c>
       <c r="I3">
-        <v>0.9564177209619993</v>
+        <v>0.7606395185047031</v>
       </c>
       <c r="J3">
-        <v>0.9798442508951452</v>
+        <v>4.27576897691519</v>
       </c>
       <c r="K3">
-        <v>1.194199767364092</v>
+        <v>0.985764631021066</v>
       </c>
       <c r="L3">
-        <v>1.089401425197432</v>
+        <v>1.031946406007745</v>
       </c>
       <c r="M3">
-        <v>1.020949081455827</v>
+        <v>0.8932609654650836</v>
       </c>
       <c r="N3">
-        <v>1.020949081455827</v>
+        <v>0.8932609654650836</v>
       </c>
       <c r="O3">
-        <v>0.9994386279578844</v>
+        <v>0.84905381647829</v>
       </c>
       <c r="P3">
-        <v>1.078699310091915</v>
+        <v>0.9240955206504111</v>
       </c>
       <c r="Q3">
-        <v>1.078699310091915</v>
+        <v>0.9240955206504111</v>
       </c>
       <c r="R3">
-        <v>1.107574424409959</v>
+        <v>0.9395127982430749</v>
       </c>
       <c r="S3">
-        <v>1.107574424409959</v>
+        <v>0.9395127982430749</v>
       </c>
       <c r="T3">
-        <v>1.039199441165752</v>
+        <v>1.464026046647169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9803550275995809</v>
+        <v>0.7685929070886317</v>
       </c>
       <c r="D4">
-        <v>1.42547908875636</v>
+        <v>0.9312865962909451</v>
       </c>
       <c r="E4">
-        <v>1.166007025396772</v>
+        <v>1.022326900833127</v>
       </c>
       <c r="F4">
-        <v>0.9803550275995809</v>
+        <v>0.7685929070886317</v>
       </c>
       <c r="G4">
-        <v>1.165921530360045</v>
+        <v>0.9685534228531681</v>
       </c>
       <c r="H4">
-        <v>1.42547908875636</v>
+        <v>0.9312865962909451</v>
       </c>
       <c r="I4">
-        <v>0.894286866283914</v>
+        <v>0.7856007136294978</v>
       </c>
       <c r="J4">
-        <v>1.02184665230298</v>
+        <v>3.747236127200695</v>
       </c>
       <c r="K4">
-        <v>1.42547908875636</v>
+        <v>0.9312865962909451</v>
       </c>
       <c r="L4">
-        <v>1.166007025396772</v>
+        <v>1.022326900833127</v>
       </c>
       <c r="M4">
-        <v>1.073181026498176</v>
+        <v>0.8954599039608792</v>
       </c>
       <c r="N4">
-        <v>1.073181026498176</v>
+        <v>0.8954599039608792</v>
       </c>
       <c r="O4">
-        <v>1.013549639760089</v>
+        <v>0.8588401738504187</v>
       </c>
       <c r="P4">
-        <v>1.190613713917571</v>
+        <v>0.9074021347375677</v>
       </c>
       <c r="Q4">
-        <v>1.190613713917571</v>
+        <v>0.9074021347375677</v>
       </c>
       <c r="R4">
-        <v>1.249330057627268</v>
+        <v>0.9133732501259121</v>
       </c>
       <c r="S4">
-        <v>1.249330057627268</v>
+        <v>0.9133732501259121</v>
       </c>
       <c r="T4">
-        <v>1.108982698449942</v>
+        <v>1.370599444649344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.301760468028191</v>
+        <v>0.6952827821690735</v>
       </c>
       <c r="D5">
-        <v>2.04274619215047</v>
+        <v>1.109518438227664</v>
       </c>
       <c r="E5">
-        <v>1.309245023634202</v>
+        <v>1.107183319666846</v>
       </c>
       <c r="F5">
-        <v>1.301760468028191</v>
+        <v>0.6952827821690735</v>
       </c>
       <c r="G5">
-        <v>1.56405991182896</v>
+        <v>1.01835507700593</v>
       </c>
       <c r="H5">
-        <v>2.04274619215047</v>
+        <v>1.109518438227664</v>
       </c>
       <c r="I5">
-        <v>0.9320519558375179</v>
+        <v>0.7105493885524248</v>
       </c>
       <c r="J5">
-        <v>1.285358562481123</v>
+        <v>5.469101065523584</v>
       </c>
       <c r="K5">
-        <v>2.04274619215047</v>
+        <v>1.109518438227664</v>
       </c>
       <c r="L5">
-        <v>1.309245023634202</v>
+        <v>1.107183319666846</v>
       </c>
       <c r="M5">
-        <v>1.305502745831197</v>
+        <v>0.9012330509179596</v>
       </c>
       <c r="N5">
-        <v>1.305502745831197</v>
+        <v>0.9012330509179596</v>
       </c>
       <c r="O5">
-        <v>1.181019149166637</v>
+        <v>0.837671830129448</v>
       </c>
       <c r="P5">
-        <v>1.551250561270954</v>
+        <v>0.9706615133545279</v>
       </c>
       <c r="Q5">
-        <v>1.551250561270954</v>
+        <v>0.9706615133545279</v>
       </c>
       <c r="R5">
-        <v>1.674124468990833</v>
+        <v>1.005375744572812</v>
       </c>
       <c r="S5">
-        <v>1.674124468990833</v>
+        <v>1.005375744572812</v>
       </c>
       <c r="T5">
-        <v>1.405870352326744</v>
+        <v>1.684998345190921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.3159496272562012</v>
+        <v>0.6191369813742047</v>
       </c>
       <c r="D6">
-        <v>3.610702624751261</v>
+        <v>1.515011790604676</v>
       </c>
       <c r="E6">
-        <v>2.617809222905027</v>
+        <v>1.339005086702785</v>
       </c>
       <c r="F6">
-        <v>0.3159496272562012</v>
+        <v>0.6191369813742047</v>
       </c>
       <c r="G6">
-        <v>1.456748477498572</v>
+        <v>0.7981007538761367</v>
       </c>
       <c r="H6">
-        <v>3.610702624751261</v>
+        <v>1.515011790604676</v>
       </c>
       <c r="I6">
-        <v>0.7869872232547134</v>
+        <v>0.7149874156228408</v>
       </c>
       <c r="J6">
-        <v>1.224197877232904</v>
+        <v>7.268929010439757</v>
       </c>
       <c r="K6">
-        <v>3.610702624751261</v>
+        <v>1.515011790604676</v>
       </c>
       <c r="L6">
-        <v>2.617809222905027</v>
+        <v>1.339005086702785</v>
       </c>
       <c r="M6">
-        <v>1.466879425080614</v>
+        <v>0.9790710340384946</v>
       </c>
       <c r="N6">
-        <v>1.466879425080614</v>
+        <v>0.9790710340384946</v>
       </c>
       <c r="O6">
-        <v>1.240248691138647</v>
+        <v>0.8910431612332766</v>
       </c>
       <c r="P6">
-        <v>2.181487158304163</v>
+        <v>1.157717952893888</v>
       </c>
       <c r="Q6">
-        <v>2.181487158304163</v>
+        <v>1.157717952893888</v>
       </c>
       <c r="R6">
-        <v>2.538791024915938</v>
+        <v>1.247041412321585</v>
       </c>
       <c r="S6">
-        <v>2.538791024915938</v>
+        <v>1.247041412321585</v>
       </c>
       <c r="T6">
-        <v>1.668732508816446</v>
+        <v>2.042528506436733</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.998152189247023</v>
+        <v>1.894703940956186</v>
       </c>
       <c r="D7">
-        <v>1.000836804429909</v>
+        <v>1.932879699391118</v>
       </c>
       <c r="E7">
-        <v>0.9998371032794533</v>
+        <v>1.112871525221687</v>
       </c>
       <c r="F7">
-        <v>0.998152189247023</v>
+        <v>1.894703940956186</v>
       </c>
       <c r="G7">
-        <v>0.9987657977820161</v>
+        <v>0.708994235889818</v>
       </c>
       <c r="H7">
-        <v>1.000836804429909</v>
+        <v>1.932879699391118</v>
       </c>
       <c r="I7">
-        <v>0.9982089253358549</v>
+        <v>0.2258376082062776</v>
       </c>
       <c r="J7">
-        <v>1.038777102078534</v>
+        <v>2.380473706596056</v>
       </c>
       <c r="K7">
-        <v>1.000836804429909</v>
+        <v>1.932879699391118</v>
       </c>
       <c r="L7">
-        <v>0.9998371032794533</v>
+        <v>1.112871525221687</v>
       </c>
       <c r="M7">
-        <v>0.9989946462632382</v>
+        <v>1.503787733088937</v>
       </c>
       <c r="N7">
-        <v>0.9989946462632382</v>
+        <v>1.503787733088937</v>
       </c>
       <c r="O7">
-        <v>0.9987327392874438</v>
+        <v>1.07780435812805</v>
       </c>
       <c r="P7">
-        <v>0.9996086989854618</v>
+        <v>1.646818388522997</v>
       </c>
       <c r="Q7">
-        <v>0.9996086989854618</v>
+        <v>1.646818388522997</v>
       </c>
       <c r="R7">
-        <v>0.9999157253465736</v>
+        <v>1.718333716240027</v>
       </c>
       <c r="S7">
-        <v>0.9999157253465736</v>
+        <v>1.718333716240027</v>
       </c>
       <c r="T7">
-        <v>1.005762987025465</v>
+        <v>1.375960119376857</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9910168211839187</v>
+        <v>1.885049899489085</v>
       </c>
       <c r="D8">
-        <v>1.005554334520259</v>
+        <v>1.950405322938495</v>
       </c>
       <c r="E8">
-        <v>1.003396603100497</v>
+        <v>1.119758402312572</v>
       </c>
       <c r="F8">
-        <v>0.9910168211839187</v>
+        <v>1.885049899489085</v>
       </c>
       <c r="G8">
-        <v>0.9980268167508443</v>
+        <v>0.7048384287338105</v>
       </c>
       <c r="H8">
-        <v>1.005554334520259</v>
+        <v>1.950405322938495</v>
       </c>
       <c r="I8">
-        <v>0.9977945552678963</v>
+        <v>0.2245989927773476</v>
       </c>
       <c r="J8">
-        <v>1.085785246038397</v>
+        <v>2.504881564283701</v>
       </c>
       <c r="K8">
-        <v>1.005554334520259</v>
+        <v>1.950405322938495</v>
       </c>
       <c r="L8">
-        <v>1.003396603100497</v>
+        <v>1.119758402312572</v>
       </c>
       <c r="M8">
-        <v>0.9972067121422077</v>
+        <v>1.502404150900828</v>
       </c>
       <c r="N8">
-        <v>0.9972067121422077</v>
+        <v>1.502404150900828</v>
       </c>
       <c r="O8">
-        <v>0.9974026598507706</v>
+        <v>1.076469098193001</v>
       </c>
       <c r="P8">
-        <v>0.9999892529348916</v>
+        <v>1.651737874913384</v>
       </c>
       <c r="Q8">
-        <v>0.9999892529348915</v>
+        <v>1.651737874913384</v>
       </c>
       <c r="R8">
-        <v>1.001380523331233</v>
+        <v>1.726404736919662</v>
       </c>
       <c r="S8">
-        <v>1.001380523331233</v>
+        <v>1.726404736919662</v>
       </c>
       <c r="T8">
-        <v>1.013595729476969</v>
+        <v>1.398255435089168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9931165782886594</v>
+        <v>1.879602357263862</v>
       </c>
       <c r="D9">
-        <v>1.056797368064967</v>
+        <v>1.947306823183474</v>
       </c>
       <c r="E9">
-        <v>1.027275058364426</v>
+        <v>1.115183186128848</v>
       </c>
       <c r="F9">
-        <v>0.9931165782886594</v>
+        <v>1.879602357263862</v>
       </c>
       <c r="G9">
-        <v>0.9931881049268663</v>
+        <v>0.7003886099491247</v>
       </c>
       <c r="H9">
-        <v>1.056797368064967</v>
+        <v>1.947306823183474</v>
       </c>
       <c r="I9">
-        <v>0.9940786368269641</v>
+        <v>0.2237629321395486</v>
       </c>
       <c r="J9">
-        <v>1.088949796547149</v>
+        <v>2.681415696225119</v>
       </c>
       <c r="K9">
-        <v>1.056797368064967</v>
+        <v>1.947306823183474</v>
       </c>
       <c r="L9">
-        <v>1.027275058364426</v>
+        <v>1.115183186128848</v>
       </c>
       <c r="M9">
-        <v>1.010195818326543</v>
+        <v>1.497392771696355</v>
       </c>
       <c r="N9">
-        <v>1.010195818326543</v>
+        <v>1.497392771696355</v>
       </c>
       <c r="O9">
-        <v>1.00482342449335</v>
+        <v>1.072849491844086</v>
       </c>
       <c r="P9">
-        <v>1.025729668239351</v>
+        <v>1.647364122192061</v>
       </c>
       <c r="Q9">
-        <v>1.025729668239351</v>
+        <v>1.647364122192061</v>
       </c>
       <c r="R9">
-        <v>1.033496593195755</v>
+        <v>1.722349797439914</v>
       </c>
       <c r="S9">
-        <v>1.033496593195755</v>
+        <v>1.722349797439914</v>
       </c>
       <c r="T9">
-        <v>1.025567590503172</v>
+        <v>1.424609934148329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9916359396175717</v>
+        <v>1.854675634448229</v>
       </c>
       <c r="D10">
-        <v>1.052716889487143</v>
+        <v>2.058219755390329</v>
       </c>
       <c r="E10">
-        <v>1.021979463467624</v>
+        <v>1.162667177305675</v>
       </c>
       <c r="F10">
-        <v>0.9916359396175717</v>
+        <v>1.854675634448229</v>
       </c>
       <c r="G10">
-        <v>1.000383072902922</v>
+        <v>0.6888577417740636</v>
       </c>
       <c r="H10">
-        <v>1.052716889487143</v>
+        <v>2.058219755390329</v>
       </c>
       <c r="I10">
-        <v>0.9883515913479268</v>
+        <v>0.2207012321047196</v>
       </c>
       <c r="J10">
-        <v>1.248222462689812</v>
+        <v>2.997839993684117</v>
       </c>
       <c r="K10">
-        <v>1.052716889487143</v>
+        <v>2.058219755390329</v>
       </c>
       <c r="L10">
-        <v>1.021979463467624</v>
+        <v>1.162667177305675</v>
       </c>
       <c r="M10">
-        <v>1.006807701542598</v>
+        <v>1.508671405876952</v>
       </c>
       <c r="N10">
-        <v>1.006807701542598</v>
+        <v>1.508671405876952</v>
       </c>
       <c r="O10">
-        <v>1.000655664811041</v>
+        <v>1.079348014619541</v>
       </c>
       <c r="P10">
-        <v>1.02211076419078</v>
+        <v>1.691854189048078</v>
       </c>
       <c r="Q10">
-        <v>1.02211076419078</v>
+        <v>1.691854189048078</v>
       </c>
       <c r="R10">
-        <v>1.02976229551487</v>
+        <v>1.783445580633641</v>
       </c>
       <c r="S10">
-        <v>1.02976229551487</v>
+        <v>1.783445580633641</v>
       </c>
       <c r="T10">
-        <v>1.0505482365855</v>
+        <v>1.497160255784522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9856490710210253</v>
+        <v>0.9527122179303289</v>
       </c>
       <c r="D11">
-        <v>1.203147470454537</v>
+        <v>1.187064655192187</v>
       </c>
       <c r="E11">
-        <v>1.121743036098717</v>
+        <v>1.075233859153783</v>
       </c>
       <c r="F11">
-        <v>0.9856490710210253</v>
+        <v>0.9527122179303289</v>
       </c>
       <c r="G11">
-        <v>0.9661714376737391</v>
+        <v>1.073823764803155</v>
       </c>
       <c r="H11">
-        <v>1.203147470454537</v>
+        <v>1.187064655192187</v>
       </c>
       <c r="I11">
-        <v>0.9677490637288032</v>
+        <v>0.9524963882562304</v>
       </c>
       <c r="J11">
-        <v>1.312288514500435</v>
+        <v>0.9735963444718977</v>
       </c>
       <c r="K11">
-        <v>1.203147470454537</v>
+        <v>1.187064655192187</v>
       </c>
       <c r="L11">
-        <v>1.121743036098717</v>
+        <v>1.075233859153783</v>
       </c>
       <c r="M11">
-        <v>1.053696053559871</v>
+        <v>1.013973038542056</v>
       </c>
       <c r="N11">
-        <v>1.053696053559871</v>
+        <v>1.013973038542056</v>
       </c>
       <c r="O11">
-        <v>1.025047056949515</v>
+        <v>0.993480821780114</v>
       </c>
       <c r="P11">
-        <v>1.10351319252476</v>
+        <v>1.0716702440921</v>
       </c>
       <c r="Q11">
-        <v>1.10351319252476</v>
+        <v>1.0716702440921</v>
       </c>
       <c r="R11">
-        <v>1.128421762007204</v>
+        <v>1.100518846867121</v>
       </c>
       <c r="S11">
-        <v>1.128421762007204</v>
+        <v>1.100518846867121</v>
       </c>
       <c r="T11">
-        <v>1.092791432246209</v>
+        <v>1.03582120496793</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.2731973417197705</v>
+        <v>0.9856913219016982</v>
       </c>
       <c r="D12">
-        <v>1.83906027372987</v>
+        <v>1.097257127219332</v>
       </c>
       <c r="E12">
-        <v>0.5352861205437532</v>
+        <v>1.034381376131804</v>
       </c>
       <c r="F12">
-        <v>0.2731973417197705</v>
+        <v>0.9856913219016982</v>
       </c>
       <c r="G12">
-        <v>1.076091487110441</v>
+        <v>1.032000672304897</v>
       </c>
       <c r="H12">
-        <v>1.83906027372987</v>
+        <v>1.097257127219332</v>
       </c>
       <c r="I12">
-        <v>1.280450305905803</v>
+        <v>0.9748940145858728</v>
       </c>
       <c r="J12">
-        <v>0.001005879704710416</v>
+        <v>1.004483083197333</v>
       </c>
       <c r="K12">
-        <v>1.83906027372987</v>
+        <v>1.097257127219332</v>
       </c>
       <c r="L12">
-        <v>0.5352861205437532</v>
+        <v>1.034381376131804</v>
       </c>
       <c r="M12">
-        <v>0.4042417311317619</v>
+        <v>1.010036349016751</v>
       </c>
       <c r="N12">
-        <v>0.4042417311317619</v>
+        <v>1.010036349016751</v>
       </c>
       <c r="O12">
-        <v>0.6963112560564423</v>
+        <v>0.9983222375397917</v>
       </c>
       <c r="P12">
-        <v>0.8825145786644647</v>
+        <v>1.039109941750945</v>
       </c>
       <c r="Q12">
-        <v>0.8825145786644647</v>
+        <v>1.039109941750945</v>
       </c>
       <c r="R12">
-        <v>1.121651002430816</v>
+        <v>1.053646738118041</v>
       </c>
       <c r="S12">
-        <v>1.121651002430816</v>
+        <v>1.053646738118041</v>
       </c>
       <c r="T12">
-        <v>0.8341819014523915</v>
+        <v>1.021451265890156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.598588566013339</v>
+        <v>0.9088282342167466</v>
       </c>
       <c r="D13">
-        <v>0.9996285566817857</v>
+        <v>1.387679332660782</v>
       </c>
       <c r="E13">
-        <v>1.25574643306191</v>
+        <v>1.189353487088957</v>
       </c>
       <c r="F13">
-        <v>1.598588566013339</v>
+        <v>0.9088282342167466</v>
       </c>
       <c r="G13">
-        <v>1.063615239376096</v>
+        <v>1.180626314960711</v>
       </c>
       <c r="H13">
-        <v>0.9996285566817857</v>
+        <v>1.387679332660782</v>
       </c>
       <c r="I13">
-        <v>0.6971098454197413</v>
+        <v>0.9142254318146874</v>
       </c>
       <c r="J13">
-        <v>0.4158317650499002</v>
+        <v>1.053913516270713</v>
       </c>
       <c r="K13">
-        <v>0.9996285566817857</v>
+        <v>1.387679332660782</v>
       </c>
       <c r="L13">
-        <v>1.25574643306191</v>
+        <v>1.189353487088957</v>
       </c>
       <c r="M13">
-        <v>1.427167499537624</v>
+        <v>1.049090860652852</v>
       </c>
       <c r="N13">
-        <v>1.427167499537624</v>
+        <v>1.049090860652852</v>
       </c>
       <c r="O13">
-        <v>1.183814948164997</v>
+        <v>1.004135717706797</v>
       </c>
       <c r="P13">
-        <v>1.284654518585678</v>
+        <v>1.161953684655495</v>
       </c>
       <c r="Q13">
-        <v>1.284654518585678</v>
+        <v>1.161953684655495</v>
       </c>
       <c r="R13">
-        <v>1.213398028109705</v>
+        <v>1.218385096656817</v>
       </c>
       <c r="S13">
-        <v>1.213398028109705</v>
+        <v>1.218385096656817</v>
       </c>
       <c r="T13">
-        <v>1.005086734267129</v>
+        <v>1.105771052835433</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4647339410847121</v>
+        <v>0.7013639830993257</v>
       </c>
       <c r="D14">
-        <v>1.093682992341114</v>
+        <v>2.219259501310614</v>
       </c>
       <c r="E14">
-        <v>0.5060459281015396</v>
+        <v>1.619971480009089</v>
       </c>
       <c r="F14">
-        <v>0.4647339410847121</v>
+        <v>0.7013639830993257</v>
       </c>
       <c r="G14">
-        <v>0.951164204545662</v>
+        <v>1.10809702354327</v>
       </c>
       <c r="H14">
-        <v>1.093682992341114</v>
+        <v>2.219259501310614</v>
       </c>
       <c r="I14">
-        <v>1.844118206353425</v>
+        <v>0.8522732410212349</v>
       </c>
       <c r="J14">
-        <v>0.000866378908943993</v>
+        <v>1.027186500490827</v>
       </c>
       <c r="K14">
-        <v>1.093682992341114</v>
+        <v>2.219259501310614</v>
       </c>
       <c r="L14">
-        <v>0.5060459281015396</v>
+        <v>1.619971480009089</v>
       </c>
       <c r="M14">
-        <v>0.4853899345931258</v>
+        <v>1.160667731554207</v>
       </c>
       <c r="N14">
-        <v>0.4853899345931258</v>
+        <v>1.160667731554207</v>
       </c>
       <c r="O14">
-        <v>0.9382993585132255</v>
+        <v>1.057869568043216</v>
       </c>
       <c r="P14">
-        <v>0.6881542871757887</v>
+        <v>1.513531654806343</v>
       </c>
       <c r="Q14">
-        <v>0.6881542871757887</v>
+        <v>1.513531654806343</v>
       </c>
       <c r="R14">
-        <v>0.7895364634671201</v>
+        <v>1.689963616432411</v>
       </c>
       <c r="S14">
-        <v>0.7895364634671201</v>
+        <v>1.689963616432411</v>
       </c>
       <c r="T14">
-        <v>0.8101019418892328</v>
+        <v>1.254691954912394</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.978024699327322</v>
+        <v>0.9524967377142217</v>
       </c>
       <c r="D15">
-        <v>0.3818635157819933</v>
+        <v>1.194199767364092</v>
       </c>
       <c r="E15">
-        <v>1.292266914514485</v>
+        <v>1.089401425197432</v>
       </c>
       <c r="F15">
-        <v>1.978024699327322</v>
+        <v>0.9524967377142217</v>
       </c>
       <c r="G15">
-        <v>0.7842549190120931</v>
+        <v>1.062836744861621</v>
       </c>
       <c r="H15">
-        <v>0.3818635157819933</v>
+        <v>1.194199767364092</v>
       </c>
       <c r="I15">
-        <v>0.8117844049184391</v>
+        <v>0.9564177209619993</v>
       </c>
       <c r="J15">
-        <v>0.4346537744456072</v>
+        <v>0.9798442508951452</v>
       </c>
       <c r="K15">
-        <v>0.3818635157819933</v>
+        <v>1.194199767364092</v>
       </c>
       <c r="L15">
-        <v>1.292266914514485</v>
+        <v>1.089401425197432</v>
       </c>
       <c r="M15">
-        <v>1.635145806920903</v>
+        <v>1.020949081455827</v>
       </c>
       <c r="N15">
-        <v>1.635145806920903</v>
+        <v>1.020949081455827</v>
       </c>
       <c r="O15">
-        <v>1.360692006253415</v>
+        <v>0.9994386279578844</v>
       </c>
       <c r="P15">
-        <v>1.217385043207933</v>
+        <v>1.078699310091915</v>
       </c>
       <c r="Q15">
-        <v>1.217385043207934</v>
+        <v>1.078699310091915</v>
       </c>
       <c r="R15">
-        <v>1.008504661351449</v>
+        <v>1.107574424409959</v>
       </c>
       <c r="S15">
-        <v>1.008504661351449</v>
+        <v>1.107574424409959</v>
       </c>
       <c r="T15">
-        <v>0.9471413713333233</v>
+        <v>1.039199441165752</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.1936837307275016</v>
+        <v>0.9803550275995809</v>
       </c>
       <c r="D16">
-        <v>4.26961313373761</v>
+        <v>1.42547908875636</v>
       </c>
       <c r="E16">
-        <v>2.277003800635632</v>
+        <v>1.166007025396772</v>
       </c>
       <c r="F16">
-        <v>0.1936837307275016</v>
+        <v>0.9803550275995809</v>
       </c>
       <c r="G16">
-        <v>2.265051684076012</v>
+        <v>1.165921530360045</v>
       </c>
       <c r="H16">
-        <v>4.26961313373761</v>
+        <v>1.42547908875636</v>
       </c>
       <c r="I16">
-        <v>0.2014977008101684</v>
+        <v>0.894286866283914</v>
       </c>
       <c r="J16">
-        <v>0.8107498911201552</v>
+        <v>1.02184665230298</v>
       </c>
       <c r="K16">
-        <v>4.26961313373761</v>
+        <v>1.42547908875636</v>
       </c>
       <c r="L16">
-        <v>2.277003800635632</v>
+        <v>1.166007025396772</v>
       </c>
       <c r="M16">
-        <v>1.235343765681567</v>
+        <v>1.073181026498176</v>
       </c>
       <c r="N16">
-        <v>1.235343765681567</v>
+        <v>1.073181026498176</v>
       </c>
       <c r="O16">
-        <v>0.8907284107244341</v>
+        <v>1.013549639760089</v>
       </c>
       <c r="P16">
-        <v>2.246766888366915</v>
+        <v>1.190613713917571</v>
       </c>
       <c r="Q16">
-        <v>2.246766888366915</v>
+        <v>1.190613713917571</v>
       </c>
       <c r="R16">
-        <v>2.752478449709589</v>
+        <v>1.249330057627268</v>
       </c>
       <c r="S16">
-        <v>2.752478449709589</v>
+        <v>1.249330057627268</v>
       </c>
       <c r="T16">
-        <v>1.669599990184513</v>
+        <v>1.108982698449942</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.3882023659896113</v>
+        <v>1.301760468028191</v>
       </c>
       <c r="D17">
-        <v>3.147202455530158</v>
+        <v>2.04274619215047</v>
       </c>
       <c r="E17">
-        <v>1.858697254895806</v>
+        <v>1.309245023634202</v>
       </c>
       <c r="F17">
-        <v>0.3882023659896113</v>
+        <v>1.301760468028191</v>
       </c>
       <c r="G17">
-        <v>1.831091645571395</v>
+        <v>1.56405991182896</v>
       </c>
       <c r="H17">
-        <v>3.147202455530158</v>
+        <v>2.04274619215047</v>
       </c>
       <c r="I17">
-        <v>0.4028987407952649</v>
+        <v>0.9320519558375179</v>
       </c>
       <c r="J17">
-        <v>1.644746329537791</v>
+        <v>1.285358562481123</v>
       </c>
       <c r="K17">
-        <v>3.147202455530158</v>
+        <v>2.04274619215047</v>
       </c>
       <c r="L17">
-        <v>1.858697254895806</v>
+        <v>1.309245023634202</v>
       </c>
       <c r="M17">
-        <v>1.123449810442709</v>
+        <v>1.305502745831197</v>
       </c>
       <c r="N17">
-        <v>1.123449810442709</v>
+        <v>1.305502745831197</v>
       </c>
       <c r="O17">
-        <v>0.8832661205602276</v>
+        <v>1.181019149166637</v>
       </c>
       <c r="P17">
-        <v>1.798034025471859</v>
+        <v>1.551250561270954</v>
       </c>
       <c r="Q17">
-        <v>1.798034025471859</v>
+        <v>1.551250561270954</v>
       </c>
       <c r="R17">
-        <v>2.135326132986433</v>
+        <v>1.674124468990833</v>
       </c>
       <c r="S17">
-        <v>2.135326132986433</v>
+        <v>1.674124468990833</v>
       </c>
       <c r="T17">
-        <v>1.545473132053337</v>
+        <v>1.405870352326744</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7844045833580805</v>
+        <v>0.3159496272562012</v>
       </c>
       <c r="D18">
-        <v>0.9392070434580656</v>
+        <v>3.610702624751261</v>
       </c>
       <c r="E18">
-        <v>1.046033119235237</v>
+        <v>2.617809222905027</v>
       </c>
       <c r="F18">
-        <v>0.7844045833580805</v>
+        <v>0.3159496272562012</v>
       </c>
       <c r="G18">
-        <v>0.9709184064768067</v>
+        <v>1.456748477498572</v>
       </c>
       <c r="H18">
-        <v>0.9392070434580656</v>
+        <v>3.610702624751261</v>
       </c>
       <c r="I18">
-        <v>0.7964139256793</v>
+        <v>0.7869872232547134</v>
       </c>
       <c r="J18">
-        <v>3.266641782700807</v>
+        <v>1.224197877232904</v>
       </c>
       <c r="K18">
-        <v>0.9392070434580656</v>
+        <v>3.610702624751261</v>
       </c>
       <c r="L18">
-        <v>1.046033119235237</v>
+        <v>2.617809222905027</v>
       </c>
       <c r="M18">
-        <v>0.9152188512966586</v>
+        <v>1.466879425080614</v>
       </c>
       <c r="N18">
-        <v>0.9152188512966586</v>
+        <v>1.466879425080614</v>
       </c>
       <c r="O18">
-        <v>0.8756172094242057</v>
+        <v>1.240248691138647</v>
       </c>
       <c r="P18">
-        <v>0.923214915350461</v>
+        <v>2.181487158304163</v>
       </c>
       <c r="Q18">
-        <v>0.923214915350461</v>
+        <v>2.181487158304163</v>
       </c>
       <c r="R18">
-        <v>0.9272129473773622</v>
+        <v>2.538791024915938</v>
       </c>
       <c r="S18">
-        <v>0.9272129473773622</v>
+        <v>2.538791024915938</v>
       </c>
       <c r="T18">
-        <v>1.300603143484716</v>
+        <v>1.668732508816446</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.231902033266522</v>
+        <v>0.998152189247023</v>
       </c>
       <c r="D19">
-        <v>0.8391730196976547</v>
+        <v>1.000836804429909</v>
       </c>
       <c r="E19">
-        <v>0.9277505913153256</v>
+        <v>0.9998371032794533</v>
       </c>
       <c r="F19">
-        <v>1.231902033266522</v>
+        <v>0.998152189247023</v>
       </c>
       <c r="G19">
-        <v>0.9682291789550875</v>
+        <v>0.9987657977820161</v>
       </c>
       <c r="H19">
-        <v>0.8391730196976547</v>
+        <v>1.000836804429909</v>
       </c>
       <c r="I19">
-        <v>0.7119336935126896</v>
+        <v>0.9982089253358549</v>
       </c>
       <c r="J19">
-        <v>4.170274478422375</v>
+        <v>1.038777102078534</v>
       </c>
       <c r="K19">
-        <v>0.8391730196976547</v>
+        <v>1.000836804429909</v>
       </c>
       <c r="L19">
-        <v>0.9277505913153256</v>
+        <v>0.9998371032794533</v>
       </c>
       <c r="M19">
-        <v>1.079826312290924</v>
+        <v>0.9989946462632382</v>
       </c>
       <c r="N19">
-        <v>1.079826312290924</v>
+        <v>0.9989946462632382</v>
       </c>
       <c r="O19">
-        <v>0.9571954393648455</v>
+        <v>0.9987327392874438</v>
       </c>
       <c r="P19">
-        <v>0.9996085480931672</v>
+        <v>0.9996086989854618</v>
       </c>
       <c r="Q19">
-        <v>0.9996085480931672</v>
+        <v>0.9996086989854618</v>
       </c>
       <c r="R19">
-        <v>0.9594996659942892</v>
+        <v>0.9999157253465736</v>
       </c>
       <c r="S19">
-        <v>0.9594996659942892</v>
+        <v>0.9999157253465736</v>
       </c>
       <c r="T19">
-        <v>1.474877165861609</v>
+        <v>1.005762987025465</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.003285544992341</v>
+        <v>0.9910168211839187</v>
       </c>
       <c r="D20">
-        <v>1.005470664859596</v>
+        <v>1.005554334520259</v>
       </c>
       <c r="E20">
-        <v>1.002767859393989</v>
+        <v>1.003396603100497</v>
       </c>
       <c r="F20">
-        <v>1.003285544992341</v>
+        <v>0.9910168211839187</v>
       </c>
       <c r="G20">
-        <v>0.9914131497501767</v>
+        <v>0.9980268167508443</v>
       </c>
       <c r="H20">
-        <v>1.005470664859596</v>
+        <v>1.005554334520259</v>
       </c>
       <c r="I20">
-        <v>1.000573040811203</v>
+        <v>0.9977945552678963</v>
       </c>
       <c r="J20">
-        <v>1.029455886985674</v>
+        <v>1.085785246038397</v>
       </c>
       <c r="K20">
-        <v>1.005470664859596</v>
+        <v>1.005554334520259</v>
       </c>
       <c r="L20">
-        <v>1.002767859393989</v>
+        <v>1.003396603100497</v>
       </c>
       <c r="M20">
-        <v>1.003026702193165</v>
+        <v>0.9972067121422077</v>
       </c>
       <c r="N20">
-        <v>1.003026702193165</v>
+        <v>0.9972067121422077</v>
       </c>
       <c r="O20">
-        <v>1.002208815065844</v>
+        <v>0.9974026598507706</v>
       </c>
       <c r="P20">
-        <v>1.003841356415309</v>
+        <v>0.9999892529348916</v>
       </c>
       <c r="Q20">
-        <v>1.003841356415309</v>
+        <v>0.9999892529348915</v>
       </c>
       <c r="R20">
-        <v>1.004248683526381</v>
+        <v>1.001380523331233</v>
       </c>
       <c r="S20">
-        <v>1.004248683526381</v>
+        <v>1.001380523331233</v>
       </c>
       <c r="T20">
-        <v>1.00549435779883</v>
+        <v>1.013595729476969</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.011457948038118</v>
+        <v>0.9931165782886594</v>
       </c>
       <c r="D21">
-        <v>0.9869058304808186</v>
+        <v>1.056797368064967</v>
       </c>
       <c r="E21">
-        <v>0.9816500240197764</v>
+        <v>1.027275058364426</v>
       </c>
       <c r="F21">
-        <v>1.011457948038118</v>
+        <v>0.9931165782886594</v>
       </c>
       <c r="G21">
-        <v>1.006154373979824</v>
+        <v>0.9931881049268663</v>
       </c>
       <c r="H21">
-        <v>0.9869058304808186</v>
+        <v>1.056797368064967</v>
       </c>
       <c r="I21">
-        <v>0.9943102434921866</v>
+        <v>0.9940786368269641</v>
       </c>
       <c r="J21">
-        <v>1.033447069278884</v>
+        <v>1.088949796547149</v>
       </c>
       <c r="K21">
-        <v>0.9869058304808186</v>
+        <v>1.056797368064967</v>
       </c>
       <c r="L21">
-        <v>0.9816500240197764</v>
+        <v>1.027275058364426</v>
       </c>
       <c r="M21">
-        <v>0.996553986028947</v>
+        <v>1.010195818326543</v>
       </c>
       <c r="N21">
-        <v>0.996553986028947</v>
+        <v>1.010195818326543</v>
       </c>
       <c r="O21">
-        <v>0.9958060718500268</v>
+        <v>1.00482342449335</v>
       </c>
       <c r="P21">
-        <v>0.9933379341795708</v>
+        <v>1.025729668239351</v>
       </c>
       <c r="Q21">
-        <v>0.9933379341795709</v>
+        <v>1.025729668239351</v>
       </c>
       <c r="R21">
-        <v>0.9917299082548828</v>
+        <v>1.033496593195755</v>
       </c>
       <c r="S21">
-        <v>0.9917299082548828</v>
+        <v>1.033496593195755</v>
       </c>
       <c r="T21">
-        <v>1.002320914881601</v>
+        <v>1.025567590503172</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.035922434709734</v>
+        <v>0.9916359396175717</v>
       </c>
       <c r="D22">
-        <v>1.238870533510542</v>
+        <v>1.052716889487143</v>
       </c>
       <c r="E22">
-        <v>1.084776485082962</v>
+        <v>1.021979463467624</v>
       </c>
       <c r="F22">
-        <v>1.035922434709734</v>
+        <v>0.9916359396175717</v>
       </c>
       <c r="G22">
-        <v>0.9875159159470309</v>
+        <v>1.000383072902922</v>
       </c>
       <c r="H22">
-        <v>1.238870533510542</v>
+        <v>1.052716889487143</v>
       </c>
       <c r="I22">
-        <v>0.9945718191354027</v>
+        <v>0.9883515913479268</v>
       </c>
       <c r="J22">
-        <v>1.062745337311881</v>
+        <v>1.248222462689812</v>
       </c>
       <c r="K22">
-        <v>1.238870533510542</v>
+        <v>1.052716889487143</v>
       </c>
       <c r="L22">
-        <v>1.084776485082962</v>
+        <v>1.021979463467624</v>
       </c>
       <c r="M22">
-        <v>1.060349459896348</v>
+        <v>1.006807701542598</v>
       </c>
       <c r="N22">
-        <v>1.060349459896348</v>
+        <v>1.006807701542598</v>
       </c>
       <c r="O22">
-        <v>1.038423579642699</v>
+        <v>1.000655664811041</v>
       </c>
       <c r="P22">
-        <v>1.119856484434412</v>
+        <v>1.02211076419078</v>
       </c>
       <c r="Q22">
-        <v>1.119856484434412</v>
+        <v>1.02211076419078</v>
       </c>
       <c r="R22">
-        <v>1.149609996703445</v>
+        <v>1.02976229551487</v>
       </c>
       <c r="S22">
-        <v>1.149609996703445</v>
+        <v>1.02976229551487</v>
       </c>
       <c r="T22">
-        <v>1.067400420949592</v>
+        <v>1.0505482365855</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9856490710210253</v>
+      </c>
+      <c r="D23">
+        <v>1.203147470454537</v>
+      </c>
+      <c r="E23">
+        <v>1.121743036098717</v>
+      </c>
+      <c r="F23">
+        <v>0.9856490710210253</v>
+      </c>
+      <c r="G23">
+        <v>0.9661714376737391</v>
+      </c>
+      <c r="H23">
+        <v>1.203147470454537</v>
+      </c>
+      <c r="I23">
+        <v>0.9677490637288032</v>
+      </c>
+      <c r="J23">
+        <v>1.312288514500435</v>
+      </c>
+      <c r="K23">
+        <v>1.203147470454537</v>
+      </c>
+      <c r="L23">
+        <v>1.121743036098717</v>
+      </c>
+      <c r="M23">
+        <v>1.053696053559871</v>
+      </c>
+      <c r="N23">
+        <v>1.053696053559871</v>
+      </c>
+      <c r="O23">
+        <v>1.025047056949515</v>
+      </c>
+      <c r="P23">
+        <v>1.10351319252476</v>
+      </c>
+      <c r="Q23">
+        <v>1.10351319252476</v>
+      </c>
+      <c r="R23">
+        <v>1.128421762007204</v>
+      </c>
+      <c r="S23">
+        <v>1.128421762007204</v>
+      </c>
+      <c r="T23">
+        <v>1.092791432246209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.2731973417197705</v>
+      </c>
+      <c r="D24">
+        <v>1.83906027372987</v>
+      </c>
+      <c r="E24">
+        <v>0.5352861205437532</v>
+      </c>
+      <c r="F24">
+        <v>0.2731973417197705</v>
+      </c>
+      <c r="G24">
+        <v>1.076091487110441</v>
+      </c>
+      <c r="H24">
+        <v>1.83906027372987</v>
+      </c>
+      <c r="I24">
+        <v>1.280450305905803</v>
+      </c>
+      <c r="J24">
+        <v>0.001005879704710416</v>
+      </c>
+      <c r="K24">
+        <v>1.83906027372987</v>
+      </c>
+      <c r="L24">
+        <v>0.5352861205437532</v>
+      </c>
+      <c r="M24">
+        <v>0.4042417311317619</v>
+      </c>
+      <c r="N24">
+        <v>0.4042417311317619</v>
+      </c>
+      <c r="O24">
+        <v>0.6963112560564423</v>
+      </c>
+      <c r="P24">
+        <v>0.8825145786644647</v>
+      </c>
+      <c r="Q24">
+        <v>0.8825145786644647</v>
+      </c>
+      <c r="R24">
+        <v>1.121651002430816</v>
+      </c>
+      <c r="S24">
+        <v>1.121651002430816</v>
+      </c>
+      <c r="T24">
+        <v>0.8341819014523915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.598588566013339</v>
+      </c>
+      <c r="D25">
+        <v>0.9996285566817857</v>
+      </c>
+      <c r="E25">
+        <v>1.25574643306191</v>
+      </c>
+      <c r="F25">
+        <v>1.598588566013339</v>
+      </c>
+      <c r="G25">
+        <v>1.063615239376096</v>
+      </c>
+      <c r="H25">
+        <v>0.9996285566817857</v>
+      </c>
+      <c r="I25">
+        <v>0.6971098454197413</v>
+      </c>
+      <c r="J25">
+        <v>0.4158317650499002</v>
+      </c>
+      <c r="K25">
+        <v>0.9996285566817857</v>
+      </c>
+      <c r="L25">
+        <v>1.25574643306191</v>
+      </c>
+      <c r="M25">
+        <v>1.427167499537624</v>
+      </c>
+      <c r="N25">
+        <v>1.427167499537624</v>
+      </c>
+      <c r="O25">
+        <v>1.183814948164997</v>
+      </c>
+      <c r="P25">
+        <v>1.284654518585678</v>
+      </c>
+      <c r="Q25">
+        <v>1.284654518585678</v>
+      </c>
+      <c r="R25">
+        <v>1.213398028109705</v>
+      </c>
+      <c r="S25">
+        <v>1.213398028109705</v>
+      </c>
+      <c r="T25">
+        <v>1.005086734267129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.4647339410847121</v>
+      </c>
+      <c r="D26">
+        <v>1.093682992341114</v>
+      </c>
+      <c r="E26">
+        <v>0.5060459281015396</v>
+      </c>
+      <c r="F26">
+        <v>0.4647339410847121</v>
+      </c>
+      <c r="G26">
+        <v>0.951164204545662</v>
+      </c>
+      <c r="H26">
+        <v>1.093682992341114</v>
+      </c>
+      <c r="I26">
+        <v>1.844118206353425</v>
+      </c>
+      <c r="J26">
+        <v>0.000866378908943993</v>
+      </c>
+      <c r="K26">
+        <v>1.093682992341114</v>
+      </c>
+      <c r="L26">
+        <v>0.5060459281015396</v>
+      </c>
+      <c r="M26">
+        <v>0.4853899345931258</v>
+      </c>
+      <c r="N26">
+        <v>0.4853899345931258</v>
+      </c>
+      <c r="O26">
+        <v>0.9382993585132255</v>
+      </c>
+      <c r="P26">
+        <v>0.6881542871757887</v>
+      </c>
+      <c r="Q26">
+        <v>0.6881542871757887</v>
+      </c>
+      <c r="R26">
+        <v>0.7895364634671201</v>
+      </c>
+      <c r="S26">
+        <v>0.7895364634671201</v>
+      </c>
+      <c r="T26">
+        <v>0.8101019418892328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.978024699327322</v>
+      </c>
+      <c r="D27">
+        <v>0.3818635157819933</v>
+      </c>
+      <c r="E27">
+        <v>1.292266914514485</v>
+      </c>
+      <c r="F27">
+        <v>1.978024699327322</v>
+      </c>
+      <c r="G27">
+        <v>0.7842549190120931</v>
+      </c>
+      <c r="H27">
+        <v>0.3818635157819933</v>
+      </c>
+      <c r="I27">
+        <v>0.8117844049184391</v>
+      </c>
+      <c r="J27">
+        <v>0.4346537744456072</v>
+      </c>
+      <c r="K27">
+        <v>0.3818635157819933</v>
+      </c>
+      <c r="L27">
+        <v>1.292266914514485</v>
+      </c>
+      <c r="M27">
+        <v>1.635145806920903</v>
+      </c>
+      <c r="N27">
+        <v>1.635145806920903</v>
+      </c>
+      <c r="O27">
+        <v>1.360692006253415</v>
+      </c>
+      <c r="P27">
+        <v>1.217385043207933</v>
+      </c>
+      <c r="Q27">
+        <v>1.217385043207934</v>
+      </c>
+      <c r="R27">
+        <v>1.008504661351449</v>
+      </c>
+      <c r="S27">
+        <v>1.008504661351449</v>
+      </c>
+      <c r="T27">
+        <v>0.9471413713333233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.1936837307275016</v>
+      </c>
+      <c r="D28">
+        <v>4.26961313373761</v>
+      </c>
+      <c r="E28">
+        <v>2.277003800635632</v>
+      </c>
+      <c r="F28">
+        <v>0.1936837307275016</v>
+      </c>
+      <c r="G28">
+        <v>2.265051684076012</v>
+      </c>
+      <c r="H28">
+        <v>4.26961313373761</v>
+      </c>
+      <c r="I28">
+        <v>0.2014977008101684</v>
+      </c>
+      <c r="J28">
+        <v>0.8107498911201552</v>
+      </c>
+      <c r="K28">
+        <v>4.26961313373761</v>
+      </c>
+      <c r="L28">
+        <v>2.277003800635632</v>
+      </c>
+      <c r="M28">
+        <v>1.235343765681567</v>
+      </c>
+      <c r="N28">
+        <v>1.235343765681567</v>
+      </c>
+      <c r="O28">
+        <v>0.8907284107244341</v>
+      </c>
+      <c r="P28">
+        <v>2.246766888366915</v>
+      </c>
+      <c r="Q28">
+        <v>2.246766888366915</v>
+      </c>
+      <c r="R28">
+        <v>2.752478449709589</v>
+      </c>
+      <c r="S28">
+        <v>2.752478449709589</v>
+      </c>
+      <c r="T28">
+        <v>1.669599990184513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.3882023659896113</v>
+      </c>
+      <c r="D29">
+        <v>3.147202455530158</v>
+      </c>
+      <c r="E29">
+        <v>1.858697254895806</v>
+      </c>
+      <c r="F29">
+        <v>0.3882023659896113</v>
+      </c>
+      <c r="G29">
+        <v>1.831091645571395</v>
+      </c>
+      <c r="H29">
+        <v>3.147202455530158</v>
+      </c>
+      <c r="I29">
+        <v>0.4028987407952649</v>
+      </c>
+      <c r="J29">
+        <v>1.644746329537791</v>
+      </c>
+      <c r="K29">
+        <v>3.147202455530158</v>
+      </c>
+      <c r="L29">
+        <v>1.858697254895806</v>
+      </c>
+      <c r="M29">
+        <v>1.123449810442709</v>
+      </c>
+      <c r="N29">
+        <v>1.123449810442709</v>
+      </c>
+      <c r="O29">
+        <v>0.8832661205602276</v>
+      </c>
+      <c r="P29">
+        <v>1.798034025471859</v>
+      </c>
+      <c r="Q29">
+        <v>1.798034025471859</v>
+      </c>
+      <c r="R29">
+        <v>2.135326132986433</v>
+      </c>
+      <c r="S29">
+        <v>2.135326132986433</v>
+      </c>
+      <c r="T29">
+        <v>1.545473132053337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.7844045833580805</v>
+      </c>
+      <c r="D30">
+        <v>0.9392070434580656</v>
+      </c>
+      <c r="E30">
+        <v>1.046033119235237</v>
+      </c>
+      <c r="F30">
+        <v>0.7844045833580805</v>
+      </c>
+      <c r="G30">
+        <v>0.9709184064768067</v>
+      </c>
+      <c r="H30">
+        <v>0.9392070434580656</v>
+      </c>
+      <c r="I30">
+        <v>0.7964139256793</v>
+      </c>
+      <c r="J30">
+        <v>3.266641782700807</v>
+      </c>
+      <c r="K30">
+        <v>0.9392070434580656</v>
+      </c>
+      <c r="L30">
+        <v>1.046033119235237</v>
+      </c>
+      <c r="M30">
+        <v>0.9152188512966586</v>
+      </c>
+      <c r="N30">
+        <v>0.9152188512966586</v>
+      </c>
+      <c r="O30">
+        <v>0.8756172094242057</v>
+      </c>
+      <c r="P30">
+        <v>0.923214915350461</v>
+      </c>
+      <c r="Q30">
+        <v>0.923214915350461</v>
+      </c>
+      <c r="R30">
+        <v>0.9272129473773622</v>
+      </c>
+      <c r="S30">
+        <v>0.9272129473773622</v>
+      </c>
+      <c r="T30">
+        <v>1.300603143484716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.231902033266522</v>
+      </c>
+      <c r="D31">
+        <v>0.8391730196976547</v>
+      </c>
+      <c r="E31">
+        <v>0.9277505913153256</v>
+      </c>
+      <c r="F31">
+        <v>1.231902033266522</v>
+      </c>
+      <c r="G31">
+        <v>0.9682291789550875</v>
+      </c>
+      <c r="H31">
+        <v>0.8391730196976547</v>
+      </c>
+      <c r="I31">
+        <v>0.7119336935126896</v>
+      </c>
+      <c r="J31">
+        <v>4.170274478422375</v>
+      </c>
+      <c r="K31">
+        <v>0.8391730196976547</v>
+      </c>
+      <c r="L31">
+        <v>0.9277505913153256</v>
+      </c>
+      <c r="M31">
+        <v>1.079826312290924</v>
+      </c>
+      <c r="N31">
+        <v>1.079826312290924</v>
+      </c>
+      <c r="O31">
+        <v>0.9571954393648455</v>
+      </c>
+      <c r="P31">
+        <v>0.9996085480931672</v>
+      </c>
+      <c r="Q31">
+        <v>0.9996085480931672</v>
+      </c>
+      <c r="R31">
+        <v>0.9594996659942892</v>
+      </c>
+      <c r="S31">
+        <v>0.9594996659942892</v>
+      </c>
+      <c r="T31">
+        <v>1.474877165861609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>-0.001282774489041096</v>
+      </c>
+      <c r="D32">
+        <v>5.527592106575345</v>
+      </c>
+      <c r="E32">
+        <v>2.762767029589042</v>
+      </c>
+      <c r="F32">
+        <v>-0.001282774489041096</v>
+      </c>
+      <c r="G32">
+        <v>2.664938346986302</v>
+      </c>
+      <c r="H32">
+        <v>5.527592106575345</v>
+      </c>
+      <c r="I32">
+        <v>-0.0003450262021917807</v>
+      </c>
+      <c r="J32">
+        <v>0.001272441509589041</v>
+      </c>
+      <c r="K32">
+        <v>5.527592106575345</v>
+      </c>
+      <c r="L32">
+        <v>2.762767029589042</v>
+      </c>
+      <c r="M32">
+        <v>1.38074212755</v>
+      </c>
+      <c r="N32">
+        <v>1.38074212755</v>
+      </c>
+      <c r="O32">
+        <v>0.9203797429659364</v>
+      </c>
+      <c r="P32">
+        <v>2.763025453891782</v>
+      </c>
+      <c r="Q32">
+        <v>2.763025453891782</v>
+      </c>
+      <c r="R32">
+        <v>3.454167117062673</v>
+      </c>
+      <c r="S32">
+        <v>3.454167117062673</v>
+      </c>
+      <c r="T32">
+        <v>1.825823687328174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.704099057457684</v>
+      </c>
+      <c r="D33">
+        <v>2.104556284347368</v>
+      </c>
+      <c r="E33">
+        <v>1.186006267685789</v>
+      </c>
+      <c r="F33">
+        <v>1.704099057457684</v>
+      </c>
+      <c r="G33">
+        <v>0.6452948609210527</v>
+      </c>
+      <c r="H33">
+        <v>2.104556284347368</v>
+      </c>
+      <c r="I33">
+        <v>0.203107242335279</v>
+      </c>
+      <c r="J33">
+        <v>5.030796045779997</v>
+      </c>
+      <c r="K33">
+        <v>2.104556284347368</v>
+      </c>
+      <c r="L33">
+        <v>1.186006267685789</v>
+      </c>
+      <c r="M33">
+        <v>1.445052662571737</v>
+      </c>
+      <c r="N33">
+        <v>1.445052662571737</v>
+      </c>
+      <c r="O33">
+        <v>1.031070855826251</v>
+      </c>
+      <c r="P33">
+        <v>1.664887203163614</v>
+      </c>
+      <c r="Q33">
+        <v>1.664887203163614</v>
+      </c>
+      <c r="R33">
+        <v>1.774804473459553</v>
+      </c>
+      <c r="S33">
+        <v>1.774804473459553</v>
+      </c>
+      <c r="T33">
+        <v>1.812309959754528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.704098948730421</v>
+      </c>
+      <c r="D34">
+        <v>2.104555982820052</v>
+      </c>
+      <c r="E34">
+        <v>1.18601608032579</v>
+      </c>
+      <c r="F34">
+        <v>1.704098948730421</v>
+      </c>
+      <c r="G34">
+        <v>0.6452844076789473</v>
+      </c>
+      <c r="H34">
+        <v>2.104555982820052</v>
+      </c>
+      <c r="I34">
+        <v>0.2031403127338105</v>
+      </c>
+      <c r="J34">
+        <v>5.030796072709995</v>
+      </c>
+      <c r="K34">
+        <v>2.104555982820052</v>
+      </c>
+      <c r="L34">
+        <v>1.18601608032579</v>
+      </c>
+      <c r="M34">
+        <v>1.445057514528105</v>
+      </c>
+      <c r="N34">
+        <v>1.445057514528105</v>
+      </c>
+      <c r="O34">
+        <v>1.031085113930007</v>
+      </c>
+      <c r="P34">
+        <v>1.664890337292088</v>
+      </c>
+      <c r="Q34">
+        <v>1.664890337292088</v>
+      </c>
+      <c r="R34">
+        <v>1.774806748674079</v>
+      </c>
+      <c r="S34">
+        <v>1.774806748674079</v>
+      </c>
+      <c r="T34">
+        <v>1.812315300833169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.3949416570573212</v>
+      </c>
+      <c r="D35">
+        <v>0.4364809087566052</v>
+      </c>
+      <c r="E35">
+        <v>0.510506512178272</v>
+      </c>
+      <c r="F35">
+        <v>0.3949416570573212</v>
+      </c>
+      <c r="G35">
+        <v>0.4773414820626159</v>
+      </c>
+      <c r="H35">
+        <v>0.4364809087566052</v>
+      </c>
+      <c r="I35">
+        <v>0.4048942316358354</v>
+      </c>
+      <c r="J35">
+        <v>24.38513545411459</v>
+      </c>
+      <c r="K35">
+        <v>0.4364809087566052</v>
+      </c>
+      <c r="L35">
+        <v>0.510506512178272</v>
+      </c>
+      <c r="M35">
+        <v>0.4527240846177966</v>
+      </c>
+      <c r="N35">
+        <v>0.4527240846177966</v>
+      </c>
+      <c r="O35">
+        <v>0.4367808002904762</v>
+      </c>
+      <c r="P35">
+        <v>0.4473096926640661</v>
+      </c>
+      <c r="Q35">
+        <v>0.4473096926640661</v>
+      </c>
+      <c r="R35">
+        <v>0.4446024966872009</v>
+      </c>
+      <c r="S35">
+        <v>0.4446024966872009</v>
+      </c>
+      <c r="T35">
+        <v>4.434883374300873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.003285544992341</v>
+      </c>
+      <c r="D36">
+        <v>1.005470664859596</v>
+      </c>
+      <c r="E36">
+        <v>1.002767859393989</v>
+      </c>
+      <c r="F36">
+        <v>1.003285544992341</v>
+      </c>
+      <c r="G36">
+        <v>0.9914131497501767</v>
+      </c>
+      <c r="H36">
+        <v>1.005470664859596</v>
+      </c>
+      <c r="I36">
+        <v>1.000573040811203</v>
+      </c>
+      <c r="J36">
+        <v>1.029455886985674</v>
+      </c>
+      <c r="K36">
+        <v>1.005470664859596</v>
+      </c>
+      <c r="L36">
+        <v>1.002767859393989</v>
+      </c>
+      <c r="M36">
+        <v>1.003026702193165</v>
+      </c>
+      <c r="N36">
+        <v>1.003026702193165</v>
+      </c>
+      <c r="O36">
+        <v>1.002208815065844</v>
+      </c>
+      <c r="P36">
+        <v>1.003841356415309</v>
+      </c>
+      <c r="Q36">
+        <v>1.003841356415309</v>
+      </c>
+      <c r="R36">
+        <v>1.004248683526381</v>
+      </c>
+      <c r="S36">
+        <v>1.004248683526381</v>
+      </c>
+      <c r="T36">
+        <v>1.00549435779883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.011457948038118</v>
+      </c>
+      <c r="D37">
+        <v>0.9869058304808186</v>
+      </c>
+      <c r="E37">
+        <v>0.9816500240197764</v>
+      </c>
+      <c r="F37">
+        <v>1.011457948038118</v>
+      </c>
+      <c r="G37">
+        <v>1.006154373979824</v>
+      </c>
+      <c r="H37">
+        <v>0.9869058304808186</v>
+      </c>
+      <c r="I37">
+        <v>0.9943102434921866</v>
+      </c>
+      <c r="J37">
+        <v>1.033447069278884</v>
+      </c>
+      <c r="K37">
+        <v>0.9869058304808186</v>
+      </c>
+      <c r="L37">
+        <v>0.9816500240197764</v>
+      </c>
+      <c r="M37">
+        <v>0.996553986028947</v>
+      </c>
+      <c r="N37">
+        <v>0.996553986028947</v>
+      </c>
+      <c r="O37">
+        <v>0.9958060718500268</v>
+      </c>
+      <c r="P37">
+        <v>0.9933379341795708</v>
+      </c>
+      <c r="Q37">
+        <v>0.9933379341795709</v>
+      </c>
+      <c r="R37">
+        <v>0.9917299082548828</v>
+      </c>
+      <c r="S37">
+        <v>0.9917299082548828</v>
+      </c>
+      <c r="T37">
+        <v>1.002320914881601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.035922434709734</v>
+      </c>
+      <c r="D38">
+        <v>1.238870533510542</v>
+      </c>
+      <c r="E38">
+        <v>1.084776485082962</v>
+      </c>
+      <c r="F38">
+        <v>1.035922434709734</v>
+      </c>
+      <c r="G38">
+        <v>0.9875159159470309</v>
+      </c>
+      <c r="H38">
+        <v>1.238870533510542</v>
+      </c>
+      <c r="I38">
+        <v>0.9945718191354027</v>
+      </c>
+      <c r="J38">
+        <v>1.062745337311881</v>
+      </c>
+      <c r="K38">
+        <v>1.238870533510542</v>
+      </c>
+      <c r="L38">
+        <v>1.084776485082962</v>
+      </c>
+      <c r="M38">
+        <v>1.060349459896348</v>
+      </c>
+      <c r="N38">
+        <v>1.060349459896348</v>
+      </c>
+      <c r="O38">
+        <v>1.038423579642699</v>
+      </c>
+      <c r="P38">
+        <v>1.119856484434412</v>
+      </c>
+      <c r="Q38">
+        <v>1.119856484434412</v>
+      </c>
+      <c r="R38">
+        <v>1.149609996703445</v>
+      </c>
+      <c r="S38">
+        <v>1.149609996703445</v>
+      </c>
+      <c r="T38">
+        <v>1.067400420949592</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.172517873308326</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.16482048622945</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9642058844213766</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.172517873308326</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.161691591083931</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.16482048622945</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.008824488790881</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.170367652890054</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.16482048622945</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9642058844213766</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.068361878864851</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.068361878864851</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.048516082173528</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.100514747986384</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.100514747986384</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.116591182547151</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.116591182547151</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.107071329454003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.851356067685178</v>
+      </c>
+      <c r="D40">
+        <v>1.399723848469843</v>
+      </c>
+      <c r="E40">
+        <v>1.135509325089846</v>
+      </c>
+      <c r="F40">
+        <v>0.851356067685178</v>
+      </c>
+      <c r="G40">
+        <v>1.013841135169148</v>
+      </c>
+      <c r="H40">
+        <v>1.399723848469843</v>
+      </c>
+      <c r="I40">
+        <v>0.8590779253267017</v>
+      </c>
+      <c r="J40">
+        <v>1.028223608545599</v>
+      </c>
+      <c r="K40">
+        <v>1.399723848469843</v>
+      </c>
+      <c r="L40">
+        <v>1.135509325089846</v>
+      </c>
+      <c r="M40">
+        <v>0.9934326963875122</v>
+      </c>
+      <c r="N40">
+        <v>0.9934326963875122</v>
+      </c>
+      <c r="O40">
+        <v>0.9486477727005753</v>
+      </c>
+      <c r="P40">
+        <v>1.128863080414956</v>
+      </c>
+      <c r="Q40">
+        <v>1.128863080414956</v>
+      </c>
+      <c r="R40">
+        <v>1.196578272428677</v>
+      </c>
+      <c r="S40">
+        <v>1.196578272428677</v>
+      </c>
+      <c r="T40">
+        <v>1.047955318381052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.142771698654888</v>
+      </c>
+      <c r="D41">
+        <v>0.9817890672657889</v>
+      </c>
+      <c r="E41">
+        <v>0.9222281696226995</v>
+      </c>
+      <c r="F41">
+        <v>1.142771698654888</v>
+      </c>
+      <c r="G41">
+        <v>0.9484722941851587</v>
+      </c>
+      <c r="H41">
+        <v>0.9817890672657889</v>
+      </c>
+      <c r="I41">
+        <v>1.086577940446943</v>
+      </c>
+      <c r="J41">
+        <v>0.9237639390368682</v>
+      </c>
+      <c r="K41">
+        <v>0.9817890672657889</v>
+      </c>
+      <c r="L41">
+        <v>0.9222281696226995</v>
+      </c>
+      <c r="M41">
+        <v>1.032499934138794</v>
+      </c>
+      <c r="N41">
+        <v>1.032499934138794</v>
+      </c>
+      <c r="O41">
+        <v>1.05052593624151</v>
+      </c>
+      <c r="P41">
+        <v>1.015596311847792</v>
+      </c>
+      <c r="Q41">
+        <v>1.015596311847792</v>
+      </c>
+      <c r="R41">
+        <v>1.007144500702291</v>
+      </c>
+      <c r="S41">
+        <v>1.007144500702291</v>
+      </c>
+      <c r="T41">
+        <v>1.000933851535391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.1819171344642142</v>
+      </c>
+      <c r="D42">
+        <v>1.736244207029832</v>
+      </c>
+      <c r="E42">
+        <v>1.186298716180361</v>
+      </c>
+      <c r="F42">
+        <v>0.1819171344642142</v>
+      </c>
+      <c r="G42">
+        <v>1.254621591571838</v>
+      </c>
+      <c r="H42">
+        <v>1.736244207029832</v>
+      </c>
+      <c r="I42">
+        <v>0.5866396267057316</v>
+      </c>
+      <c r="J42">
+        <v>1.011027865805287</v>
+      </c>
+      <c r="K42">
+        <v>1.736244207029832</v>
+      </c>
+      <c r="L42">
+        <v>1.186298716180361</v>
+      </c>
+      <c r="M42">
+        <v>0.6841079253222875</v>
+      </c>
+      <c r="N42">
+        <v>0.6841079253222875</v>
+      </c>
+      <c r="O42">
+        <v>0.6516184924501022</v>
+      </c>
+      <c r="P42">
+        <v>1.034820019224802</v>
+      </c>
+      <c r="Q42">
+        <v>1.034820019224802</v>
+      </c>
+      <c r="R42">
+        <v>1.210176066176059</v>
+      </c>
+      <c r="S42">
+        <v>1.210176066176059</v>
+      </c>
+      <c r="T42">
+        <v>0.9927915236262104</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.194199767364092</v>
+        <v>0.9910168211839187</v>
       </c>
       <c r="D3">
-        <v>0.9524967377142217</v>
+        <v>1.005554334520259</v>
       </c>
       <c r="E3">
-        <v>1.089401425197432</v>
+        <v>1.003396603100497</v>
       </c>
       <c r="F3">
-        <v>1.194199767364092</v>
+        <v>0.9910168211839187</v>
       </c>
       <c r="G3">
-        <v>0.9798442508951452</v>
+        <v>0.9980268167508443</v>
       </c>
       <c r="H3">
-        <v>0.9564177209619993</v>
+        <v>1.005554334520259</v>
       </c>
       <c r="I3">
-        <v>1.062836744861621</v>
+        <v>0.9977945552678963</v>
       </c>
       <c r="J3">
-        <v>0.9524967377142217</v>
+        <v>1.085785246038397</v>
       </c>
       <c r="K3">
-        <v>1.194199767364092</v>
+        <v>1.005554334520259</v>
       </c>
       <c r="L3">
-        <v>1.089401425197432</v>
+        <v>1.003396603100497</v>
       </c>
       <c r="M3">
-        <v>1.020949081455827</v>
+        <v>0.9972067121422077</v>
       </c>
       <c r="N3">
-        <v>1.020949081455827</v>
+        <v>0.9972067121422077</v>
       </c>
       <c r="O3">
-        <v>0.9994386279578844</v>
+        <v>0.9974026598507706</v>
       </c>
       <c r="P3">
-        <v>1.078699310091915</v>
+        <v>0.9999892529348916</v>
       </c>
       <c r="Q3">
-        <v>1.078699310091915</v>
+        <v>0.9999892529348915</v>
       </c>
       <c r="R3">
-        <v>1.107574424409959</v>
+        <v>1.001380523331233</v>
       </c>
       <c r="S3">
-        <v>1.107574424409959</v>
+        <v>1.001380523331233</v>
       </c>
       <c r="T3">
-        <v>1.039199441165752</v>
+        <v>1.013595729476969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.42547908875636</v>
+        <v>0.851356067685178</v>
       </c>
       <c r="D4">
-        <v>0.9803550275995809</v>
+        <v>1.399723848469843</v>
       </c>
       <c r="E4">
-        <v>1.166007025396772</v>
+        <v>1.135509325089846</v>
       </c>
       <c r="F4">
-        <v>1.42547908875636</v>
+        <v>0.851356067685178</v>
       </c>
       <c r="G4">
-        <v>1.02184665230298</v>
+        <v>1.013841135169148</v>
       </c>
       <c r="H4">
-        <v>0.8942868662839142</v>
+        <v>1.399723848469843</v>
       </c>
       <c r="I4">
-        <v>1.165921530360045</v>
+        <v>0.8590779253267017</v>
       </c>
       <c r="J4">
-        <v>0.9803550275995809</v>
+        <v>1.028223608545599</v>
       </c>
       <c r="K4">
-        <v>1.42547908875636</v>
+        <v>1.399723848469843</v>
       </c>
       <c r="L4">
-        <v>1.166007025396772</v>
+        <v>1.135509325089846</v>
       </c>
       <c r="M4">
-        <v>1.073181026498176</v>
+        <v>0.9934326963875122</v>
       </c>
       <c r="N4">
-        <v>1.073181026498176</v>
+        <v>0.9934326963875122</v>
       </c>
       <c r="O4">
-        <v>1.013549639760089</v>
+        <v>0.9486477727005753</v>
       </c>
       <c r="P4">
-        <v>1.190613713917571</v>
+        <v>1.128863080414956</v>
       </c>
       <c r="Q4">
-        <v>1.190613713917571</v>
+        <v>1.128863080414956</v>
       </c>
       <c r="R4">
-        <v>1.249330057627268</v>
+        <v>1.196578272428677</v>
       </c>
       <c r="S4">
-        <v>1.249330057627268</v>
+        <v>1.196578272428677</v>
       </c>
       <c r="T4">
-        <v>1.108982698449942</v>
+        <v>1.047955318381052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.04274619215047</v>
+        <v>0.7545755249224223</v>
       </c>
       <c r="D5">
-        <v>1.301760468028191</v>
+        <v>0.985764631021066</v>
       </c>
       <c r="E5">
-        <v>1.309245023634202</v>
+        <v>1.031946406007745</v>
       </c>
       <c r="F5">
-        <v>2.04274619215047</v>
+        <v>0.7545755249224223</v>
       </c>
       <c r="G5">
-        <v>1.285358562481123</v>
+        <v>0.9754612225118857</v>
       </c>
       <c r="H5">
-        <v>0.9320519558375179</v>
+        <v>0.985764631021066</v>
       </c>
       <c r="I5">
-        <v>1.56405991182896</v>
+        <v>0.7606395185047031</v>
       </c>
       <c r="J5">
-        <v>1.301760468028191</v>
+        <v>4.27576897691519</v>
       </c>
       <c r="K5">
-        <v>2.04274619215047</v>
+        <v>0.985764631021066</v>
       </c>
       <c r="L5">
-        <v>1.309245023634202</v>
+        <v>1.031946406007745</v>
       </c>
       <c r="M5">
-        <v>1.305502745831197</v>
+        <v>0.8932609654650836</v>
       </c>
       <c r="N5">
-        <v>1.305502745831197</v>
+        <v>0.8932609654650836</v>
       </c>
       <c r="O5">
-        <v>1.181019149166637</v>
+        <v>0.84905381647829</v>
       </c>
       <c r="P5">
-        <v>1.551250561270954</v>
+        <v>0.9240955206504111</v>
       </c>
       <c r="Q5">
-        <v>1.551250561270954</v>
+        <v>0.9240955206504111</v>
       </c>
       <c r="R5">
-        <v>1.674124468990833</v>
+        <v>0.9395127982430749</v>
       </c>
       <c r="S5">
-        <v>1.674124468990833</v>
+        <v>0.9395127982430749</v>
       </c>
       <c r="T5">
-        <v>1.405870352326744</v>
+        <v>1.464026046647169</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.610702624751263</v>
+        <v>0.3949416570573212</v>
       </c>
       <c r="D6">
-        <v>0.3159496272562012</v>
+        <v>0.4364809087566052</v>
       </c>
       <c r="E6">
-        <v>2.617809222905027</v>
+        <v>0.510506512178272</v>
       </c>
       <c r="F6">
-        <v>3.610702624751263</v>
+        <v>0.3949416570573212</v>
       </c>
       <c r="G6">
-        <v>1.224197877232904</v>
+        <v>0.4773414820626159</v>
       </c>
       <c r="H6">
-        <v>0.7869872232547134</v>
+        <v>0.4364809087566052</v>
       </c>
       <c r="I6">
-        <v>1.456748477498573</v>
+        <v>0.4048942316358354</v>
       </c>
       <c r="J6">
-        <v>0.3159496272562012</v>
+        <v>24.38513545411459</v>
       </c>
       <c r="K6">
-        <v>3.610702624751263</v>
+        <v>0.4364809087566052</v>
       </c>
       <c r="L6">
-        <v>2.617809222905027</v>
+        <v>0.510506512178272</v>
       </c>
       <c r="M6">
-        <v>1.466879425080614</v>
+        <v>0.4527240846177966</v>
       </c>
       <c r="N6">
-        <v>1.466879425080614</v>
+        <v>0.4527240846177966</v>
       </c>
       <c r="O6">
-        <v>1.240248691138647</v>
+        <v>0.4367808002904762</v>
       </c>
       <c r="P6">
-        <v>2.181487158304163</v>
+        <v>0.4473096926640661</v>
       </c>
       <c r="Q6">
-        <v>2.181487158304163</v>
+        <v>0.4473096926640661</v>
       </c>
       <c r="R6">
-        <v>2.538791024915938</v>
+        <v>0.4446024966872009</v>
       </c>
       <c r="S6">
-        <v>2.538791024915938</v>
+        <v>0.4446024966872009</v>
       </c>
       <c r="T6">
-        <v>1.668732508816447</v>
+        <v>4.434883374300873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000836804429909</v>
+        <v>0.9527122179303289</v>
       </c>
       <c r="D7">
-        <v>0.9981521892470232</v>
+        <v>1.187064655192187</v>
       </c>
       <c r="E7">
-        <v>0.999837103279453</v>
+        <v>1.075233859153783</v>
       </c>
       <c r="F7">
-        <v>1.000836804429909</v>
+        <v>0.9527122179303289</v>
       </c>
       <c r="G7">
-        <v>1.038777102078534</v>
+        <v>1.073823764803155</v>
       </c>
       <c r="H7">
-        <v>0.9982089253358558</v>
+        <v>1.187064655192187</v>
       </c>
       <c r="I7">
-        <v>0.9987657977820156</v>
+        <v>0.9524963882562304</v>
       </c>
       <c r="J7">
-        <v>0.9981521892470232</v>
+        <v>0.9735963444718977</v>
       </c>
       <c r="K7">
-        <v>1.000836804429909</v>
+        <v>1.187064655192187</v>
       </c>
       <c r="L7">
-        <v>0.999837103279453</v>
+        <v>1.075233859153783</v>
       </c>
       <c r="M7">
-        <v>0.9989946462632381</v>
+        <v>1.013973038542056</v>
       </c>
       <c r="N7">
-        <v>0.9989946462632381</v>
+        <v>1.013973038542056</v>
       </c>
       <c r="O7">
-        <v>0.998732739287444</v>
+        <v>0.993480821780114</v>
       </c>
       <c r="P7">
-        <v>0.9996086989854618</v>
+        <v>1.0716702440921</v>
       </c>
       <c r="Q7">
-        <v>0.9996086989854618</v>
+        <v>1.0716702440921</v>
       </c>
       <c r="R7">
-        <v>0.9999157253465736</v>
+        <v>1.100518846867121</v>
       </c>
       <c r="S7">
-        <v>0.9999157253465736</v>
+        <v>1.100518846867121</v>
       </c>
       <c r="T7">
-        <v>1.005762987025465</v>
+        <v>1.03582120496793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00555433452026</v>
+        <v>1.011457948038118</v>
       </c>
       <c r="D8">
-        <v>0.9910168211839202</v>
+        <v>0.9869058304808186</v>
       </c>
       <c r="E8">
-        <v>1.003396603100496</v>
+        <v>0.9816500240197764</v>
       </c>
       <c r="F8">
-        <v>1.00555433452026</v>
+        <v>1.011457948038118</v>
       </c>
       <c r="G8">
-        <v>1.085785246038391</v>
+        <v>1.006154373979824</v>
       </c>
       <c r="H8">
-        <v>0.9977945552678966</v>
+        <v>0.9869058304808186</v>
       </c>
       <c r="I8">
-        <v>0.9980268167508438</v>
+        <v>0.9943102434921866</v>
       </c>
       <c r="J8">
-        <v>0.9910168211839202</v>
+        <v>1.033447069278884</v>
       </c>
       <c r="K8">
-        <v>1.00555433452026</v>
+        <v>0.9869058304808186</v>
       </c>
       <c r="L8">
-        <v>1.003396603100496</v>
+        <v>0.9816500240197764</v>
       </c>
       <c r="M8">
-        <v>0.9972067121422081</v>
+        <v>0.996553986028947</v>
       </c>
       <c r="N8">
-        <v>0.9972067121422081</v>
+        <v>0.996553986028947</v>
       </c>
       <c r="O8">
-        <v>0.9974026598507709</v>
+        <v>0.9958060718500268</v>
       </c>
       <c r="P8">
-        <v>0.9999892529348919</v>
+        <v>0.9933379341795708</v>
       </c>
       <c r="Q8">
-        <v>0.999989252934892</v>
+        <v>0.9933379341795709</v>
       </c>
       <c r="R8">
-        <v>1.001380523331234</v>
+        <v>0.9917299082548828</v>
       </c>
       <c r="S8">
-        <v>1.001380523331234</v>
+        <v>0.9917299082548828</v>
       </c>
       <c r="T8">
-        <v>1.013595729476968</v>
+        <v>1.002320914881601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.056797368064967</v>
+        <v>0.9803550275995809</v>
       </c>
       <c r="D9">
-        <v>0.9931165782886594</v>
+        <v>1.42547908875636</v>
       </c>
       <c r="E9">
-        <v>1.027275058364426</v>
+        <v>1.166007025396772</v>
       </c>
       <c r="F9">
-        <v>1.056797368064967</v>
+        <v>0.9803550275995809</v>
       </c>
       <c r="G9">
-        <v>1.088949796547149</v>
+        <v>1.165921530360045</v>
       </c>
       <c r="H9">
-        <v>0.9940786368269641</v>
+        <v>1.42547908875636</v>
       </c>
       <c r="I9">
-        <v>0.9931881049268663</v>
+        <v>0.894286866283914</v>
       </c>
       <c r="J9">
-        <v>0.9931165782886594</v>
+        <v>1.02184665230298</v>
       </c>
       <c r="K9">
-        <v>1.056797368064967</v>
+        <v>1.42547908875636</v>
       </c>
       <c r="L9">
-        <v>1.027275058364426</v>
+        <v>1.166007025396772</v>
       </c>
       <c r="M9">
-        <v>1.010195818326543</v>
+        <v>1.073181026498176</v>
       </c>
       <c r="N9">
-        <v>1.010195818326543</v>
+        <v>1.073181026498176</v>
       </c>
       <c r="O9">
-        <v>1.00482342449335</v>
+        <v>1.013549639760089</v>
       </c>
       <c r="P9">
-        <v>1.025729668239351</v>
+        <v>1.190613713917571</v>
       </c>
       <c r="Q9">
-        <v>1.025729668239351</v>
+        <v>1.190613713917571</v>
       </c>
       <c r="R9">
-        <v>1.033496593195755</v>
+        <v>1.249330057627268</v>
       </c>
       <c r="S9">
-        <v>1.033496593195755</v>
+        <v>1.249330057627268</v>
       </c>
       <c r="T9">
-        <v>1.025567590503172</v>
+        <v>1.108982698449942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.052716889487143</v>
+        <v>0.513946990365305</v>
       </c>
       <c r="D10">
-        <v>0.9916359396175717</v>
+        <v>0.4156131527442676</v>
       </c>
       <c r="E10">
-        <v>1.021979463467624</v>
+        <v>0.4688092193800795</v>
       </c>
       <c r="F10">
-        <v>1.052716889487143</v>
+        <v>0.513946990365305</v>
       </c>
       <c r="G10">
-        <v>1.248222462689812</v>
+        <v>0.4665991506847265</v>
       </c>
       <c r="H10">
-        <v>0.9883515913479268</v>
+        <v>0.4156131527442676</v>
       </c>
       <c r="I10">
-        <v>1.000383072902922</v>
+        <v>0.359339911382535</v>
       </c>
       <c r="J10">
-        <v>0.9916359396175717</v>
+        <v>24.80947364735434</v>
       </c>
       <c r="K10">
-        <v>1.052716889487143</v>
+        <v>0.4156131527442676</v>
       </c>
       <c r="L10">
-        <v>1.021979463467624</v>
+        <v>0.4688092193800795</v>
       </c>
       <c r="M10">
-        <v>1.006807701542598</v>
+        <v>0.4913781048726922</v>
       </c>
       <c r="N10">
-        <v>1.006807701542598</v>
+        <v>0.4913781048726922</v>
       </c>
       <c r="O10">
-        <v>1.000655664811041</v>
+        <v>0.4473653737093065</v>
       </c>
       <c r="P10">
-        <v>1.02211076419078</v>
+        <v>0.466123120829884</v>
       </c>
       <c r="Q10">
-        <v>1.02211076419078</v>
+        <v>0.466123120829884</v>
       </c>
       <c r="R10">
-        <v>1.02976229551487</v>
+        <v>0.4534956288084799</v>
       </c>
       <c r="S10">
-        <v>1.02976229551487</v>
+        <v>0.4534956288084799</v>
       </c>
       <c r="T10">
-        <v>1.0505482365855</v>
+        <v>4.505630345318543</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.203147470454537</v>
+        <v>0.8688943161187923</v>
       </c>
       <c r="D11">
-        <v>0.9856490710210253</v>
+        <v>1.432926728859524</v>
       </c>
       <c r="E11">
-        <v>1.121743036098717</v>
+        <v>1.097243957316242</v>
       </c>
       <c r="F11">
-        <v>1.203147470454537</v>
+        <v>0.8688943161187923</v>
       </c>
       <c r="G11">
-        <v>1.312288514500435</v>
+        <v>1.029006924383547</v>
       </c>
       <c r="H11">
-        <v>0.9677490637288034</v>
+        <v>1.432926728859524</v>
       </c>
       <c r="I11">
-        <v>0.9661714376737391</v>
+        <v>0.9093899202682194</v>
       </c>
       <c r="J11">
-        <v>0.9856490710210253</v>
+        <v>0.8254200437347998</v>
       </c>
       <c r="K11">
-        <v>1.203147470454537</v>
+        <v>1.432926728859524</v>
       </c>
       <c r="L11">
-        <v>1.121743036098717</v>
+        <v>1.097243957316242</v>
       </c>
       <c r="M11">
-        <v>1.053696053559871</v>
+        <v>0.9830691367175171</v>
       </c>
       <c r="N11">
-        <v>1.053696053559871</v>
+        <v>0.9830691367175171</v>
       </c>
       <c r="O11">
-        <v>1.025047056949515</v>
+        <v>0.9585093979010845</v>
       </c>
       <c r="P11">
-        <v>1.10351319252476</v>
+        <v>1.133021667431519</v>
       </c>
       <c r="Q11">
-        <v>1.10351319252476</v>
+        <v>1.133021667431519</v>
       </c>
       <c r="R11">
-        <v>1.128421762007204</v>
+        <v>1.20799793278852</v>
       </c>
       <c r="S11">
-        <v>1.128421762007204</v>
+        <v>1.20799793278852</v>
       </c>
       <c r="T11">
-        <v>1.092791432246209</v>
+        <v>1.027146981780187</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.83906027372987</v>
+        <v>1.075415740518854</v>
       </c>
       <c r="D12">
-        <v>0.2731973417197704</v>
+        <v>0.7753982252852225</v>
       </c>
       <c r="E12">
-        <v>0.5352861205437539</v>
+        <v>0.9626364794094201</v>
       </c>
       <c r="F12">
-        <v>1.83906027372987</v>
+        <v>1.075415740518854</v>
       </c>
       <c r="G12">
-        <v>0.001005879704710414</v>
+        <v>0.8740398548068428</v>
       </c>
       <c r="H12">
-        <v>1.280450305905803</v>
+        <v>0.7753982252852225</v>
       </c>
       <c r="I12">
-        <v>1.076091487110441</v>
+        <v>0.6740447059816734</v>
       </c>
       <c r="J12">
-        <v>0.2731973417197704</v>
+        <v>5.545207309741992</v>
       </c>
       <c r="K12">
-        <v>1.83906027372987</v>
+        <v>0.7753982252852225</v>
       </c>
       <c r="L12">
-        <v>0.5352861205437539</v>
+        <v>0.9626364794094201</v>
       </c>
       <c r="M12">
-        <v>0.4042417311317622</v>
+        <v>1.019026109964137</v>
       </c>
       <c r="N12">
-        <v>0.4042417311317622</v>
+        <v>1.019026109964137</v>
       </c>
       <c r="O12">
-        <v>0.6963112560564424</v>
+        <v>0.9040323086366492</v>
       </c>
       <c r="P12">
-        <v>0.8825145786644647</v>
+        <v>0.9378168150711655</v>
       </c>
       <c r="Q12">
-        <v>0.8825145786644647</v>
+        <v>0.9378168150711655</v>
       </c>
       <c r="R12">
-        <v>1.121651002430816</v>
+        <v>0.8972121676246798</v>
       </c>
       <c r="S12">
-        <v>1.121651002430816</v>
+        <v>0.8972121676246798</v>
       </c>
       <c r="T12">
-        <v>0.8341819014523915</v>
+        <v>1.651123719290667</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996285566817856</v>
+        <v>1.762168288515419</v>
       </c>
       <c r="D13">
-        <v>1.59858856601334</v>
+        <v>1.018632379046457</v>
       </c>
       <c r="E13">
-        <v>1.25574643306191</v>
+        <v>0.8090042491538028</v>
       </c>
       <c r="F13">
-        <v>0.9996285566817856</v>
+        <v>1.762168288515419</v>
       </c>
       <c r="G13">
-        <v>0.4158317650499002</v>
+        <v>0.9757486649070839</v>
       </c>
       <c r="H13">
-        <v>0.6971098454197417</v>
+        <v>1.018632379046457</v>
       </c>
       <c r="I13">
-        <v>1.063615239376097</v>
+        <v>1.017262321234838</v>
       </c>
       <c r="J13">
-        <v>1.59858856601334</v>
+        <v>0.5698234401052148</v>
       </c>
       <c r="K13">
-        <v>0.9996285566817856</v>
+        <v>1.018632379046457</v>
       </c>
       <c r="L13">
-        <v>1.25574643306191</v>
+        <v>0.8090042491538028</v>
       </c>
       <c r="M13">
-        <v>1.427167499537625</v>
+        <v>1.285586268834611</v>
       </c>
       <c r="N13">
-        <v>1.427167499537625</v>
+        <v>1.285586268834611</v>
       </c>
       <c r="O13">
-        <v>1.183814948164997</v>
+        <v>1.19614495296802</v>
       </c>
       <c r="P13">
-        <v>1.284654518585678</v>
+        <v>1.196601638905226</v>
       </c>
       <c r="Q13">
-        <v>1.284654518585678</v>
+        <v>1.196601638905226</v>
       </c>
       <c r="R13">
-        <v>1.213398028109705</v>
+        <v>1.152109323940534</v>
       </c>
       <c r="S13">
-        <v>1.213398028109705</v>
+        <v>1.152109323940534</v>
       </c>
       <c r="T13">
-        <v>1.005086734267129</v>
+        <v>1.025439890493803</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.093682992341115</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="D14">
-        <v>0.4647339410847124</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="E14">
-        <v>0.5060459281015399</v>
+        <v>0.0080378142</v>
       </c>
       <c r="F14">
-        <v>1.093682992341115</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="G14">
-        <v>0.0008663789089439916</v>
+        <v>-0.005504551799999996</v>
       </c>
       <c r="H14">
-        <v>1.844118206353424</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="I14">
-        <v>0.9511642045456621</v>
+        <v>-0.002063599</v>
       </c>
       <c r="J14">
-        <v>0.4647339410847124</v>
+        <v>45.56474799999992</v>
       </c>
       <c r="K14">
-        <v>1.093682992341115</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="L14">
-        <v>0.5060459281015399</v>
+        <v>0.0080378142</v>
       </c>
       <c r="M14">
-        <v>0.4853899345931262</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="N14">
-        <v>0.4853899345931262</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="O14">
-        <v>0.9382993585132257</v>
+        <v>0.004070094366666664</v>
       </c>
       <c r="P14">
-        <v>0.688154287175789</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="Q14">
-        <v>0.688154287175789</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="R14">
-        <v>0.7895364634671205</v>
+        <v>0.002172385125</v>
       </c>
       <c r="S14">
-        <v>0.7895364634671205</v>
+        <v>0.002172385125</v>
       </c>
       <c r="T14">
-        <v>0.8101019418892329</v>
+        <v>7.594776926749987</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3818635157819932</v>
+        <v>-0.0016685823</v>
       </c>
       <c r="D15">
-        <v>1.978024699327322</v>
+        <v>15.190373</v>
       </c>
       <c r="E15">
-        <v>1.292266914514485</v>
+        <v>7.5943258</v>
       </c>
       <c r="F15">
-        <v>0.3818635157819932</v>
+        <v>-0.0016685823</v>
       </c>
       <c r="G15">
-        <v>0.4346537744456072</v>
+        <v>0.28534561</v>
       </c>
       <c r="H15">
-        <v>0.8117844049184391</v>
+        <v>15.190373</v>
       </c>
       <c r="I15">
-        <v>0.7842549190120931</v>
+        <v>0.0023316888</v>
       </c>
       <c r="J15">
-        <v>1.978024699327322</v>
+        <v>0.0026234374</v>
       </c>
       <c r="K15">
-        <v>0.3818635157819932</v>
+        <v>15.190373</v>
       </c>
       <c r="L15">
-        <v>1.292266914514485</v>
+        <v>7.5943258</v>
       </c>
       <c r="M15">
-        <v>1.635145806920903</v>
+        <v>3.79632860885</v>
       </c>
       <c r="N15">
-        <v>1.635145806920903</v>
+        <v>3.79632860885</v>
       </c>
       <c r="O15">
-        <v>1.360692006253415</v>
+        <v>2.531662968833333</v>
       </c>
       <c r="P15">
-        <v>1.217385043207933</v>
+        <v>7.594343405899999</v>
       </c>
       <c r="Q15">
-        <v>1.217385043207933</v>
+        <v>7.594343405899999</v>
       </c>
       <c r="R15">
-        <v>1.008504661351448</v>
+        <v>9.493350804424999</v>
       </c>
       <c r="S15">
-        <v>1.008504661351448</v>
+        <v>9.493350804424999</v>
       </c>
       <c r="T15">
-        <v>0.9471413713333233</v>
+        <v>3.845555158983333</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.005470664859594</v>
+        <v>-0.0016673296</v>
       </c>
       <c r="D16">
-        <v>1.003285544992341</v>
+        <v>15.190373</v>
       </c>
       <c r="E16">
-        <v>1.002767859393988</v>
+        <v>7.5943258</v>
       </c>
       <c r="F16">
-        <v>1.005470664859594</v>
+        <v>-0.0016673296</v>
       </c>
       <c r="G16">
-        <v>1.029455886985675</v>
+        <v>0.28534581</v>
       </c>
       <c r="H16">
-        <v>1.000573040811203</v>
+        <v>15.190373</v>
       </c>
       <c r="I16">
-        <v>0.9914131497501756</v>
+        <v>0.0023322823</v>
       </c>
       <c r="J16">
-        <v>1.003285544992341</v>
+        <v>0.0026215904</v>
       </c>
       <c r="K16">
-        <v>1.005470664859594</v>
+        <v>15.190373</v>
       </c>
       <c r="L16">
-        <v>1.002767859393988</v>
+        <v>7.5943258</v>
       </c>
       <c r="M16">
-        <v>1.003026702193165</v>
+        <v>3.7963292352</v>
       </c>
       <c r="N16">
-        <v>1.003026702193165</v>
+        <v>3.7963292352</v>
       </c>
       <c r="O16">
-        <v>1.002208815065844</v>
+        <v>2.531663584233333</v>
       </c>
       <c r="P16">
-        <v>1.003841356415308</v>
+        <v>7.594343823466666</v>
       </c>
       <c r="Q16">
-        <v>1.003841356415308</v>
+        <v>7.594343823466666</v>
       </c>
       <c r="R16">
-        <v>1.00424868352638</v>
+        <v>9.4933511176</v>
       </c>
       <c r="S16">
-        <v>1.00424868352638</v>
+        <v>9.4933511176</v>
       </c>
       <c r="T16">
-        <v>1.00549435779883</v>
+        <v>3.845555192183333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9869058304808177</v>
+        <v>7.055062799999999</v>
       </c>
       <c r="D17">
-        <v>1.011457948038119</v>
+        <v>1.322524E-05</v>
       </c>
       <c r="E17">
-        <v>0.9816500240197739</v>
+        <v>0.56171698</v>
       </c>
       <c r="F17">
-        <v>0.9869058304808177</v>
+        <v>7.055062799999999</v>
       </c>
       <c r="G17">
-        <v>1.033447069278884</v>
+        <v>0.043519485</v>
       </c>
       <c r="H17">
-        <v>0.9943102434921866</v>
+        <v>1.322524E-05</v>
       </c>
       <c r="I17">
-        <v>1.006154373979823</v>
+        <v>0.016152412</v>
       </c>
       <c r="J17">
-        <v>1.011457948038119</v>
+        <v>0.52710668</v>
       </c>
       <c r="K17">
-        <v>0.9869058304808177</v>
+        <v>1.322524E-05</v>
       </c>
       <c r="L17">
-        <v>0.9816500240197739</v>
+        <v>0.56171698</v>
       </c>
       <c r="M17">
-        <v>0.9965539860289463</v>
+        <v>3.80838989</v>
       </c>
       <c r="N17">
-        <v>0.9965539860289463</v>
+        <v>3.80838989</v>
       </c>
       <c r="O17">
-        <v>0.9958060718500263</v>
+        <v>2.544310730666667</v>
       </c>
       <c r="P17">
-        <v>0.9933379341795701</v>
+        <v>2.538931001746666</v>
       </c>
       <c r="Q17">
-        <v>0.9933379341795701</v>
+        <v>2.538931001746666</v>
       </c>
       <c r="R17">
-        <v>0.9917299082548819</v>
+        <v>1.90420155762</v>
       </c>
       <c r="S17">
-        <v>0.9917299082548819</v>
+        <v>1.90420155762</v>
       </c>
       <c r="T17">
-        <v>1.002320914881601</v>
+        <v>1.367261930373333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.238870533510539</v>
+        <v>-0.001282774489041096</v>
       </c>
       <c r="D18">
-        <v>1.035922434709734</v>
+        <v>5.527592106575345</v>
       </c>
       <c r="E18">
-        <v>1.084776485082961</v>
+        <v>2.762767029589042</v>
       </c>
       <c r="F18">
-        <v>1.238870533510539</v>
+        <v>-0.001282774489041096</v>
       </c>
       <c r="G18">
-        <v>1.062745337311883</v>
+        <v>2.664938346986302</v>
       </c>
       <c r="H18">
-        <v>0.9945718191354025</v>
+        <v>5.527592106575345</v>
       </c>
       <c r="I18">
-        <v>0.9875159159470298</v>
+        <v>-0.0003450262021917807</v>
       </c>
       <c r="J18">
-        <v>1.035922434709734</v>
+        <v>0.001272441509589041</v>
       </c>
       <c r="K18">
-        <v>1.238870533510539</v>
+        <v>5.527592106575345</v>
       </c>
       <c r="L18">
-        <v>1.084776485082961</v>
+        <v>2.762767029589042</v>
       </c>
       <c r="M18">
-        <v>1.060349459896347</v>
+        <v>1.38074212755</v>
       </c>
       <c r="N18">
-        <v>1.060349459896347</v>
+        <v>1.38074212755</v>
       </c>
       <c r="O18">
-        <v>1.038423579642699</v>
+        <v>0.9203797429659364</v>
       </c>
       <c r="P18">
-        <v>1.119856484434411</v>
+        <v>2.763025453891782</v>
       </c>
       <c r="Q18">
-        <v>1.119856484434411</v>
+        <v>2.763025453891782</v>
       </c>
       <c r="R18">
-        <v>1.149609996703443</v>
+        <v>3.454167117062673</v>
       </c>
       <c r="S18">
-        <v>1.149609996703443</v>
+        <v>3.454167117062673</v>
       </c>
       <c r="T18">
-        <v>1.067400420949591</v>
+        <v>1.825823687328174</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.16482048622945</v>
+        <v>1.704099057457684</v>
       </c>
       <c r="D19">
-        <v>1.172517873308326</v>
+        <v>2.104556284347368</v>
       </c>
       <c r="E19">
-        <v>0.9642058844213766</v>
+        <v>1.186006267685789</v>
       </c>
       <c r="F19">
-        <v>1.16482048622945</v>
+        <v>1.704099057457684</v>
       </c>
       <c r="G19">
-        <v>1.170367652890054</v>
+        <v>0.6452948609210527</v>
       </c>
       <c r="H19">
-        <v>1.008824488790881</v>
+        <v>2.104556284347368</v>
       </c>
       <c r="I19">
-        <v>1.161691591083931</v>
+        <v>0.203107242335279</v>
       </c>
       <c r="J19">
-        <v>1.172517873308326</v>
+        <v>5.030796045779997</v>
       </c>
       <c r="K19">
-        <v>1.16482048622945</v>
+        <v>2.104556284347368</v>
       </c>
       <c r="L19">
-        <v>0.9642058844213766</v>
+        <v>1.186006267685789</v>
       </c>
       <c r="M19">
-        <v>1.068361878864851</v>
+        <v>1.445052662571737</v>
       </c>
       <c r="N19">
-        <v>1.068361878864851</v>
+        <v>1.445052662571737</v>
       </c>
       <c r="O19">
-        <v>1.048516082173528</v>
+        <v>1.031070855826251</v>
       </c>
       <c r="P19">
-        <v>1.100514747986384</v>
+        <v>1.664887203163614</v>
       </c>
       <c r="Q19">
-        <v>1.100514747986384</v>
+        <v>1.664887203163614</v>
       </c>
       <c r="R19">
-        <v>1.116591182547151</v>
+        <v>1.774804473459553</v>
       </c>
       <c r="S19">
-        <v>1.116591182547151</v>
+        <v>1.774804473459553</v>
       </c>
       <c r="T19">
-        <v>1.107071329454003</v>
+        <v>1.812309959754528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.704098948730421</v>
+      </c>
+      <c r="D20">
+        <v>2.104555982820052</v>
+      </c>
+      <c r="E20">
+        <v>1.18601608032579</v>
+      </c>
+      <c r="F20">
+        <v>1.704098948730421</v>
+      </c>
+      <c r="G20">
+        <v>0.6452844076789473</v>
+      </c>
+      <c r="H20">
+        <v>2.104555982820052</v>
+      </c>
+      <c r="I20">
+        <v>0.2031403127338105</v>
+      </c>
+      <c r="J20">
+        <v>5.030796072709995</v>
+      </c>
+      <c r="K20">
+        <v>2.104555982820052</v>
+      </c>
+      <c r="L20">
+        <v>1.18601608032579</v>
+      </c>
+      <c r="M20">
+        <v>1.445057514528105</v>
+      </c>
+      <c r="N20">
+        <v>1.445057514528105</v>
+      </c>
+      <c r="O20">
+        <v>1.031085113930007</v>
+      </c>
+      <c r="P20">
+        <v>1.664890337292088</v>
+      </c>
+      <c r="Q20">
+        <v>1.664890337292088</v>
+      </c>
+      <c r="R20">
+        <v>1.774806748674079</v>
+      </c>
+      <c r="S20">
+        <v>1.774806748674079</v>
+      </c>
+      <c r="T20">
+        <v>1.812315300833169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.4647339410847121</v>
+      </c>
+      <c r="D21">
+        <v>1.093682992341114</v>
+      </c>
+      <c r="E21">
+        <v>0.5060459281015396</v>
+      </c>
+      <c r="F21">
+        <v>0.4647339410847121</v>
+      </c>
+      <c r="G21">
+        <v>0.951164204545662</v>
+      </c>
+      <c r="H21">
+        <v>1.093682992341114</v>
+      </c>
+      <c r="I21">
+        <v>1.844118206353425</v>
+      </c>
+      <c r="J21">
+        <v>0.000866378908943993</v>
+      </c>
+      <c r="K21">
+        <v>1.093682992341114</v>
+      </c>
+      <c r="L21">
+        <v>0.5060459281015396</v>
+      </c>
+      <c r="M21">
+        <v>0.4853899345931258</v>
+      </c>
+      <c r="N21">
+        <v>0.4853899345931258</v>
+      </c>
+      <c r="O21">
+        <v>0.9382993585132255</v>
+      </c>
+      <c r="P21">
+        <v>0.6881542871757887</v>
+      </c>
+      <c r="Q21">
+        <v>0.6881542871757887</v>
+      </c>
+      <c r="R21">
+        <v>0.7895364634671201</v>
+      </c>
+      <c r="S21">
+        <v>0.7895364634671201</v>
+      </c>
+      <c r="T21">
+        <v>0.8101019418892328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.978024699327322</v>
+      </c>
+      <c r="D22">
+        <v>0.3818635157819933</v>
+      </c>
+      <c r="E22">
+        <v>1.292266914514485</v>
+      </c>
+      <c r="F22">
+        <v>1.978024699327322</v>
+      </c>
+      <c r="G22">
+        <v>0.7842549190120931</v>
+      </c>
+      <c r="H22">
+        <v>0.3818635157819933</v>
+      </c>
+      <c r="I22">
+        <v>0.8117844049184391</v>
+      </c>
+      <c r="J22">
+        <v>0.4346537744456072</v>
+      </c>
+      <c r="K22">
+        <v>0.3818635157819933</v>
+      </c>
+      <c r="L22">
+        <v>1.292266914514485</v>
+      </c>
+      <c r="M22">
+        <v>1.635145806920903</v>
+      </c>
+      <c r="N22">
+        <v>1.635145806920903</v>
+      </c>
+      <c r="O22">
+        <v>1.360692006253415</v>
+      </c>
+      <c r="P22">
+        <v>1.217385043207933</v>
+      </c>
+      <c r="Q22">
+        <v>1.217385043207934</v>
+      </c>
+      <c r="R22">
+        <v>1.008504661351449</v>
+      </c>
+      <c r="S22">
+        <v>1.008504661351449</v>
+      </c>
+      <c r="T22">
+        <v>0.9471413713333233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.2731973417197705</v>
+      </c>
+      <c r="D23">
+        <v>1.83906027372987</v>
+      </c>
+      <c r="E23">
+        <v>0.5352861205437532</v>
+      </c>
+      <c r="F23">
+        <v>0.2731973417197705</v>
+      </c>
+      <c r="G23">
+        <v>1.076091487110441</v>
+      </c>
+      <c r="H23">
+        <v>1.83906027372987</v>
+      </c>
+      <c r="I23">
+        <v>1.280450305905803</v>
+      </c>
+      <c r="J23">
+        <v>0.001005879704710416</v>
+      </c>
+      <c r="K23">
+        <v>1.83906027372987</v>
+      </c>
+      <c r="L23">
+        <v>0.5352861205437532</v>
+      </c>
+      <c r="M23">
+        <v>0.4042417311317619</v>
+      </c>
+      <c r="N23">
+        <v>0.4042417311317619</v>
+      </c>
+      <c r="O23">
+        <v>0.6963112560564423</v>
+      </c>
+      <c r="P23">
+        <v>0.8825145786644647</v>
+      </c>
+      <c r="Q23">
+        <v>0.8825145786644647</v>
+      </c>
+      <c r="R23">
+        <v>1.121651002430816</v>
+      </c>
+      <c r="S23">
+        <v>1.121651002430816</v>
+      </c>
+      <c r="T23">
+        <v>0.8341819014523915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.598588566013339</v>
+      </c>
+      <c r="D24">
+        <v>0.9996285566817857</v>
+      </c>
+      <c r="E24">
+        <v>1.25574643306191</v>
+      </c>
+      <c r="F24">
+        <v>1.598588566013339</v>
+      </c>
+      <c r="G24">
+        <v>1.063615239376096</v>
+      </c>
+      <c r="H24">
+        <v>0.9996285566817857</v>
+      </c>
+      <c r="I24">
+        <v>0.6971098454197413</v>
+      </c>
+      <c r="J24">
+        <v>0.4158317650499002</v>
+      </c>
+      <c r="K24">
+        <v>0.9996285566817857</v>
+      </c>
+      <c r="L24">
+        <v>1.25574643306191</v>
+      </c>
+      <c r="M24">
+        <v>1.427167499537624</v>
+      </c>
+      <c r="N24">
+        <v>1.427167499537624</v>
+      </c>
+      <c r="O24">
+        <v>1.183814948164997</v>
+      </c>
+      <c r="P24">
+        <v>1.284654518585678</v>
+      </c>
+      <c r="Q24">
+        <v>1.284654518585678</v>
+      </c>
+      <c r="R24">
+        <v>1.213398028109705</v>
+      </c>
+      <c r="S24">
+        <v>1.213398028109705</v>
+      </c>
+      <c r="T24">
+        <v>1.005086734267129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.464823868231119</v>
+      </c>
+      <c r="D25">
+        <v>1.093566450401579</v>
+      </c>
+      <c r="E25">
+        <v>0.5060286194726901</v>
+      </c>
+      <c r="F25">
+        <v>0.464823868231119</v>
+      </c>
+      <c r="G25">
+        <v>0.951132858028775</v>
+      </c>
+      <c r="H25">
+        <v>1.093566450401579</v>
+      </c>
+      <c r="I25">
+        <v>1.844139104102732</v>
+      </c>
+      <c r="J25">
+        <v>0.0008663007739613707</v>
+      </c>
+      <c r="K25">
+        <v>1.093566450401579</v>
+      </c>
+      <c r="L25">
+        <v>0.5060286194726901</v>
+      </c>
+      <c r="M25">
+        <v>0.4854262438519046</v>
+      </c>
+      <c r="N25">
+        <v>0.4854262438519046</v>
+      </c>
+      <c r="O25">
+        <v>0.9383305306021804</v>
+      </c>
+      <c r="P25">
+        <v>0.6881396460351293</v>
+      </c>
+      <c r="Q25">
+        <v>0.6881396460351291</v>
+      </c>
+      <c r="R25">
+        <v>0.7894963471267415</v>
+      </c>
+      <c r="S25">
+        <v>0.7894963471267415</v>
+      </c>
+      <c r="T25">
+        <v>0.8100928668351427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.978036518823529</v>
+      </c>
+      <c r="D26">
+        <v>0.3818788697583615</v>
+      </c>
+      <c r="E26">
+        <v>1.292254422077881</v>
+      </c>
+      <c r="F26">
+        <v>1.978036518823529</v>
+      </c>
+      <c r="G26">
+        <v>0.7842685882438342</v>
+      </c>
+      <c r="H26">
+        <v>0.3818788697583615</v>
+      </c>
+      <c r="I26">
+        <v>0.8118248561260151</v>
+      </c>
+      <c r="J26">
+        <v>0.4346360325734004</v>
+      </c>
+      <c r="K26">
+        <v>0.3818788697583615</v>
+      </c>
+      <c r="L26">
+        <v>1.292254422077881</v>
+      </c>
+      <c r="M26">
+        <v>1.635145470450705</v>
+      </c>
+      <c r="N26">
+        <v>1.635145470450705</v>
+      </c>
+      <c r="O26">
+        <v>1.360705265675809</v>
+      </c>
+      <c r="P26">
+        <v>1.217389936886591</v>
+      </c>
+      <c r="Q26">
+        <v>1.217389936886591</v>
+      </c>
+      <c r="R26">
+        <v>1.008512170104533</v>
+      </c>
+      <c r="S26">
+        <v>1.008512170104533</v>
+      </c>
+      <c r="T26">
+        <v>0.9471498812671703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.006186228815596925</v>
+      </c>
+      <c r="D27">
+        <v>1.234553276721798</v>
+      </c>
+      <c r="E27">
+        <v>0.2736592337854815</v>
+      </c>
+      <c r="F27">
+        <v>0.006186228815596925</v>
+      </c>
+      <c r="G27">
+        <v>0.6492044884615863</v>
+      </c>
+      <c r="H27">
+        <v>1.234553276721798</v>
+      </c>
+      <c r="I27">
+        <v>1.68481113040592</v>
+      </c>
+      <c r="J27">
+        <v>5.329777815307493</v>
+      </c>
+      <c r="K27">
+        <v>1.234553276721798</v>
+      </c>
+      <c r="L27">
+        <v>0.2736592337854815</v>
+      </c>
+      <c r="M27">
+        <v>0.1399227313005392</v>
+      </c>
+      <c r="N27">
+        <v>0.1399227313005392</v>
+      </c>
+      <c r="O27">
+        <v>0.6548855310023327</v>
+      </c>
+      <c r="P27">
+        <v>0.5047995797742922</v>
+      </c>
+      <c r="Q27">
+        <v>0.5047995797742922</v>
+      </c>
+      <c r="R27">
+        <v>0.6872380040111687</v>
+      </c>
+      <c r="S27">
+        <v>0.6872380040111687</v>
+      </c>
+      <c r="T27">
+        <v>1.529698695582979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>3.733980303671041</v>
+      </c>
+      <c r="D28">
+        <v>1.053261801066988</v>
+      </c>
+      <c r="E28">
+        <v>0.2782912424163004</v>
+      </c>
+      <c r="F28">
+        <v>3.733980303671041</v>
+      </c>
+      <c r="G28">
+        <v>1.311870347540639</v>
+      </c>
+      <c r="H28">
+        <v>1.053261801066988</v>
+      </c>
+      <c r="I28">
+        <v>0.04332866463765057</v>
+      </c>
+      <c r="J28">
+        <v>0.7292496527994605</v>
+      </c>
+      <c r="K28">
+        <v>1.053261801066988</v>
+      </c>
+      <c r="L28">
+        <v>0.2782912424163004</v>
+      </c>
+      <c r="M28">
+        <v>2.00613577304367</v>
+      </c>
+      <c r="N28">
+        <v>2.00613577304367</v>
+      </c>
+      <c r="O28">
+        <v>1.35186673690833</v>
+      </c>
+      <c r="P28">
+        <v>1.68851111571811</v>
+      </c>
+      <c r="Q28">
+        <v>1.68851111571811</v>
+      </c>
+      <c r="R28">
+        <v>1.52969878705533</v>
+      </c>
+      <c r="S28">
+        <v>1.52969878705533</v>
+      </c>
+      <c r="T28">
+        <v>1.19166366868868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>6.836824039540042</v>
+      </c>
+      <c r="D29">
+        <v>1.913095572758936</v>
+      </c>
+      <c r="E29">
+        <v>0.1616984994655236</v>
+      </c>
+      <c r="F29">
+        <v>6.836824039540042</v>
+      </c>
+      <c r="G29">
+        <v>0.4012800574872188</v>
+      </c>
+      <c r="H29">
+        <v>1.913095572758936</v>
+      </c>
+      <c r="I29">
+        <v>0.07263423013787461</v>
+      </c>
+      <c r="J29">
+        <v>0.004628171478703889</v>
+      </c>
+      <c r="K29">
+        <v>1.913095572758936</v>
+      </c>
+      <c r="L29">
+        <v>0.1616984994655236</v>
+      </c>
+      <c r="M29">
+        <v>3.499261269502783</v>
+      </c>
+      <c r="N29">
+        <v>3.499261269502783</v>
+      </c>
+      <c r="O29">
+        <v>2.357052256381147</v>
+      </c>
+      <c r="P29">
+        <v>2.970539370588167</v>
+      </c>
+      <c r="Q29">
+        <v>2.970539370588167</v>
+      </c>
+      <c r="R29">
+        <v>2.706178421130859</v>
+      </c>
+      <c r="S29">
+        <v>2.706178421130859</v>
+      </c>
+      <c r="T29">
+        <v>1.565026761811383</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.851356067685178</v>
+        <v>0.781297178994761</v>
       </c>
       <c r="D4">
-        <v>1.399723848469843</v>
+        <v>0.876705921382459</v>
       </c>
       <c r="E4">
-        <v>1.135509325089846</v>
+        <v>1.012234544846315</v>
       </c>
       <c r="F4">
-        <v>0.851356067685178</v>
+        <v>0.781297178994761</v>
       </c>
       <c r="G4">
-        <v>1.013841135169148</v>
+        <v>0.9564071671233761</v>
       </c>
       <c r="H4">
-        <v>1.399723848469843</v>
+        <v>0.876705921382459</v>
       </c>
       <c r="I4">
-        <v>0.8590779253267017</v>
+        <v>0.8099247113464456</v>
       </c>
       <c r="J4">
-        <v>1.028223608545599</v>
+        <v>3.303497357419585</v>
       </c>
       <c r="K4">
-        <v>1.399723848469843</v>
+        <v>0.876705921382459</v>
       </c>
       <c r="L4">
-        <v>1.135509325089846</v>
+        <v>1.012234544846315</v>
       </c>
       <c r="M4">
-        <v>0.9934326963875122</v>
+        <v>0.8967658619205381</v>
       </c>
       <c r="N4">
-        <v>0.9934326963875122</v>
+        <v>0.8967658619205381</v>
       </c>
       <c r="O4">
-        <v>0.9486477727005753</v>
+        <v>0.867818811729174</v>
       </c>
       <c r="P4">
-        <v>1.128863080414956</v>
+        <v>0.8900792150745117</v>
       </c>
       <c r="Q4">
-        <v>1.128863080414956</v>
+        <v>0.8900792150745117</v>
       </c>
       <c r="R4">
-        <v>1.196578272428677</v>
+        <v>0.8867358916514986</v>
       </c>
       <c r="S4">
-        <v>1.196578272428677</v>
+        <v>0.8867358916514986</v>
       </c>
       <c r="T4">
-        <v>1.047955318381052</v>
+        <v>1.290011146852157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.7545755249224223</v>
+        <v>1.885049899489085</v>
       </c>
       <c r="D5">
-        <v>0.985764631021066</v>
+        <v>1.950405322938495</v>
       </c>
       <c r="E5">
-        <v>1.031946406007745</v>
+        <v>1.119758402312572</v>
       </c>
       <c r="F5">
-        <v>0.7545755249224223</v>
+        <v>1.885049899489085</v>
       </c>
       <c r="G5">
-        <v>0.9754612225118857</v>
+        <v>0.7048384287338105</v>
       </c>
       <c r="H5">
-        <v>0.985764631021066</v>
+        <v>1.950405322938495</v>
       </c>
       <c r="I5">
-        <v>0.7606395185047031</v>
+        <v>0.2245989927773476</v>
       </c>
       <c r="J5">
-        <v>4.27576897691519</v>
+        <v>2.504881564283701</v>
       </c>
       <c r="K5">
-        <v>0.985764631021066</v>
+        <v>1.950405322938495</v>
       </c>
       <c r="L5">
-        <v>1.031946406007745</v>
+        <v>1.119758402312572</v>
       </c>
       <c r="M5">
-        <v>0.8932609654650836</v>
+        <v>1.502404150900828</v>
       </c>
       <c r="N5">
-        <v>0.8932609654650836</v>
+        <v>1.502404150900828</v>
       </c>
       <c r="O5">
-        <v>0.84905381647829</v>
+        <v>1.076469098193001</v>
       </c>
       <c r="P5">
-        <v>0.9240955206504111</v>
+        <v>1.651737874913384</v>
       </c>
       <c r="Q5">
-        <v>0.9240955206504111</v>
+        <v>1.651737874913384</v>
       </c>
       <c r="R5">
-        <v>0.9395127982430749</v>
+        <v>1.726404736919662</v>
       </c>
       <c r="S5">
-        <v>0.9395127982430749</v>
+        <v>1.726404736919662</v>
       </c>
       <c r="T5">
-        <v>1.464026046647169</v>
+        <v>1.398255435089168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.3949416570573212</v>
+        <v>0.851356067685178</v>
       </c>
       <c r="D6">
-        <v>0.4364809087566052</v>
+        <v>1.399723848469843</v>
       </c>
       <c r="E6">
-        <v>0.510506512178272</v>
+        <v>1.135509325089846</v>
       </c>
       <c r="F6">
-        <v>0.3949416570573212</v>
+        <v>0.851356067685178</v>
       </c>
       <c r="G6">
-        <v>0.4773414820626159</v>
+        <v>1.013841135169148</v>
       </c>
       <c r="H6">
-        <v>0.4364809087566052</v>
+        <v>1.399723848469843</v>
       </c>
       <c r="I6">
-        <v>0.4048942316358354</v>
+        <v>0.8590779253267017</v>
       </c>
       <c r="J6">
-        <v>24.38513545411459</v>
+        <v>1.028223608545599</v>
       </c>
       <c r="K6">
-        <v>0.4364809087566052</v>
+        <v>1.399723848469843</v>
       </c>
       <c r="L6">
-        <v>0.510506512178272</v>
+        <v>1.135509325089846</v>
       </c>
       <c r="M6">
-        <v>0.4527240846177966</v>
+        <v>0.9934326963875122</v>
       </c>
       <c r="N6">
-        <v>0.4527240846177966</v>
+        <v>0.9934326963875122</v>
       </c>
       <c r="O6">
-        <v>0.4367808002904762</v>
+        <v>0.9486477727005753</v>
       </c>
       <c r="P6">
-        <v>0.4473096926640661</v>
+        <v>1.128863080414956</v>
       </c>
       <c r="Q6">
-        <v>0.4473096926640661</v>
+        <v>1.128863080414956</v>
       </c>
       <c r="R6">
-        <v>0.4446024966872009</v>
+        <v>1.196578272428677</v>
       </c>
       <c r="S6">
-        <v>0.4446024966872009</v>
+        <v>1.196578272428677</v>
       </c>
       <c r="T6">
-        <v>4.434883374300873</v>
+        <v>1.047955318381052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9527122179303289</v>
+        <v>0.7545755249224223</v>
       </c>
       <c r="D7">
-        <v>1.187064655192187</v>
+        <v>0.985764631021066</v>
       </c>
       <c r="E7">
-        <v>1.075233859153783</v>
+        <v>1.031946406007745</v>
       </c>
       <c r="F7">
-        <v>0.9527122179303289</v>
+        <v>0.7545755249224223</v>
       </c>
       <c r="G7">
-        <v>1.073823764803155</v>
+        <v>0.9754612225118857</v>
       </c>
       <c r="H7">
-        <v>1.187064655192187</v>
+        <v>0.985764631021066</v>
       </c>
       <c r="I7">
-        <v>0.9524963882562304</v>
+        <v>0.7606395185047031</v>
       </c>
       <c r="J7">
-        <v>0.9735963444718977</v>
+        <v>4.27576897691519</v>
       </c>
       <c r="K7">
-        <v>1.187064655192187</v>
+        <v>0.985764631021066</v>
       </c>
       <c r="L7">
-        <v>1.075233859153783</v>
+        <v>1.031946406007745</v>
       </c>
       <c r="M7">
-        <v>1.013973038542056</v>
+        <v>0.8932609654650836</v>
       </c>
       <c r="N7">
-        <v>1.013973038542056</v>
+        <v>0.8932609654650836</v>
       </c>
       <c r="O7">
-        <v>0.993480821780114</v>
+        <v>0.84905381647829</v>
       </c>
       <c r="P7">
-        <v>1.0716702440921</v>
+        <v>0.9240955206504111</v>
       </c>
       <c r="Q7">
-        <v>1.0716702440921</v>
+        <v>0.9240955206504111</v>
       </c>
       <c r="R7">
-        <v>1.100518846867121</v>
+        <v>0.9395127982430749</v>
       </c>
       <c r="S7">
-        <v>1.100518846867121</v>
+        <v>0.9395127982430749</v>
       </c>
       <c r="T7">
-        <v>1.03582120496793</v>
+        <v>1.464026046647169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.011457948038118</v>
+        <v>0.3949416570573212</v>
       </c>
       <c r="D8">
-        <v>0.9869058304808186</v>
+        <v>0.4364809087566052</v>
       </c>
       <c r="E8">
-        <v>0.9816500240197764</v>
+        <v>0.510506512178272</v>
       </c>
       <c r="F8">
-        <v>1.011457948038118</v>
+        <v>0.3949416570573212</v>
       </c>
       <c r="G8">
-        <v>1.006154373979824</v>
+        <v>0.4773414820626159</v>
       </c>
       <c r="H8">
-        <v>0.9869058304808186</v>
+        <v>0.4364809087566052</v>
       </c>
       <c r="I8">
-        <v>0.9943102434921866</v>
+        <v>0.4048942316358354</v>
       </c>
       <c r="J8">
-        <v>1.033447069278884</v>
+        <v>24.38513545411459</v>
       </c>
       <c r="K8">
-        <v>0.9869058304808186</v>
+        <v>0.4364809087566052</v>
       </c>
       <c r="L8">
-        <v>0.9816500240197764</v>
+        <v>0.510506512178272</v>
       </c>
       <c r="M8">
-        <v>0.996553986028947</v>
+        <v>0.4527240846177966</v>
       </c>
       <c r="N8">
-        <v>0.996553986028947</v>
+        <v>0.4527240846177966</v>
       </c>
       <c r="O8">
-        <v>0.9958060718500268</v>
+        <v>0.4367808002904762</v>
       </c>
       <c r="P8">
-        <v>0.9933379341795708</v>
+        <v>0.4473096926640661</v>
       </c>
       <c r="Q8">
-        <v>0.9933379341795709</v>
+        <v>0.4473096926640661</v>
       </c>
       <c r="R8">
-        <v>0.9917299082548828</v>
+        <v>0.4446024966872009</v>
       </c>
       <c r="S8">
-        <v>0.9917299082548828</v>
+        <v>0.4446024966872009</v>
       </c>
       <c r="T8">
-        <v>1.002320914881601</v>
+        <v>4.434883374300873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9803550275995809</v>
+        <v>0.9527122179303289</v>
       </c>
       <c r="D9">
-        <v>1.42547908875636</v>
+        <v>1.187064655192187</v>
       </c>
       <c r="E9">
-        <v>1.166007025396772</v>
+        <v>1.075233859153783</v>
       </c>
       <c r="F9">
-        <v>0.9803550275995809</v>
+        <v>0.9527122179303289</v>
       </c>
       <c r="G9">
-        <v>1.165921530360045</v>
+        <v>1.073823764803155</v>
       </c>
       <c r="H9">
-        <v>1.42547908875636</v>
+        <v>1.187064655192187</v>
       </c>
       <c r="I9">
-        <v>0.894286866283914</v>
+        <v>0.9524963882562304</v>
       </c>
       <c r="J9">
-        <v>1.02184665230298</v>
+        <v>0.9735963444718977</v>
       </c>
       <c r="K9">
-        <v>1.42547908875636</v>
+        <v>1.187064655192187</v>
       </c>
       <c r="L9">
-        <v>1.166007025396772</v>
+        <v>1.075233859153783</v>
       </c>
       <c r="M9">
-        <v>1.073181026498176</v>
+        <v>1.013973038542056</v>
       </c>
       <c r="N9">
-        <v>1.073181026498176</v>
+        <v>1.013973038542056</v>
       </c>
       <c r="O9">
-        <v>1.013549639760089</v>
+        <v>0.993480821780114</v>
       </c>
       <c r="P9">
-        <v>1.190613713917571</v>
+        <v>1.0716702440921</v>
       </c>
       <c r="Q9">
-        <v>1.190613713917571</v>
+        <v>1.0716702440921</v>
       </c>
       <c r="R9">
-        <v>1.249330057627268</v>
+        <v>1.100518846867121</v>
       </c>
       <c r="S9">
-        <v>1.249330057627268</v>
+        <v>1.100518846867121</v>
       </c>
       <c r="T9">
-        <v>1.108982698449942</v>
+        <v>1.03582120496793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.513946990365305</v>
+        <v>1.011457948038118</v>
       </c>
       <c r="D10">
-        <v>0.4156131527442676</v>
+        <v>0.9869058304808186</v>
       </c>
       <c r="E10">
-        <v>0.4688092193800795</v>
+        <v>0.9816500240197764</v>
       </c>
       <c r="F10">
-        <v>0.513946990365305</v>
+        <v>1.011457948038118</v>
       </c>
       <c r="G10">
-        <v>0.4665991506847265</v>
+        <v>1.006154373979824</v>
       </c>
       <c r="H10">
-        <v>0.4156131527442676</v>
+        <v>0.9869058304808186</v>
       </c>
       <c r="I10">
-        <v>0.359339911382535</v>
+        <v>0.9943102434921866</v>
       </c>
       <c r="J10">
-        <v>24.80947364735434</v>
+        <v>1.033447069278884</v>
       </c>
       <c r="K10">
-        <v>0.4156131527442676</v>
+        <v>0.9869058304808186</v>
       </c>
       <c r="L10">
-        <v>0.4688092193800795</v>
+        <v>0.9816500240197764</v>
       </c>
       <c r="M10">
-        <v>0.4913781048726922</v>
+        <v>0.996553986028947</v>
       </c>
       <c r="N10">
-        <v>0.4913781048726922</v>
+        <v>0.996553986028947</v>
       </c>
       <c r="O10">
-        <v>0.4473653737093065</v>
+        <v>0.9958060718500268</v>
       </c>
       <c r="P10">
-        <v>0.466123120829884</v>
+        <v>0.9933379341795708</v>
       </c>
       <c r="Q10">
-        <v>0.466123120829884</v>
+        <v>0.9933379341795709</v>
       </c>
       <c r="R10">
-        <v>0.4534956288084799</v>
+        <v>0.9917299082548828</v>
       </c>
       <c r="S10">
-        <v>0.4534956288084799</v>
+        <v>0.9917299082548828</v>
       </c>
       <c r="T10">
-        <v>4.505630345318543</v>
+        <v>1.002320914881601</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8688943161187923</v>
+        <v>0.9803550275995809</v>
       </c>
       <c r="D11">
-        <v>1.432926728859524</v>
+        <v>1.42547908875636</v>
       </c>
       <c r="E11">
-        <v>1.097243957316242</v>
+        <v>1.166007025396772</v>
       </c>
       <c r="F11">
-        <v>0.8688943161187923</v>
+        <v>0.9803550275995809</v>
       </c>
       <c r="G11">
-        <v>1.029006924383547</v>
+        <v>1.165921530360045</v>
       </c>
       <c r="H11">
-        <v>1.432926728859524</v>
+        <v>1.42547908875636</v>
       </c>
       <c r="I11">
-        <v>0.9093899202682194</v>
+        <v>0.894286866283914</v>
       </c>
       <c r="J11">
-        <v>0.8254200437347998</v>
+        <v>1.02184665230298</v>
       </c>
       <c r="K11">
-        <v>1.432926728859524</v>
+        <v>1.42547908875636</v>
       </c>
       <c r="L11">
-        <v>1.097243957316242</v>
+        <v>1.166007025396772</v>
       </c>
       <c r="M11">
-        <v>0.9830691367175171</v>
+        <v>1.073181026498176</v>
       </c>
       <c r="N11">
-        <v>0.9830691367175171</v>
+        <v>1.073181026498176</v>
       </c>
       <c r="O11">
-        <v>0.9585093979010845</v>
+        <v>1.013549639760089</v>
       </c>
       <c r="P11">
-        <v>1.133021667431519</v>
+        <v>1.190613713917571</v>
       </c>
       <c r="Q11">
-        <v>1.133021667431519</v>
+        <v>1.190613713917571</v>
       </c>
       <c r="R11">
-        <v>1.20799793278852</v>
+        <v>1.249330057627268</v>
       </c>
       <c r="S11">
-        <v>1.20799793278852</v>
+        <v>1.249330057627268</v>
       </c>
       <c r="T11">
-        <v>1.027146981780187</v>
+        <v>1.108982698449942</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.075415740518854</v>
+        <v>0.513946990365305</v>
       </c>
       <c r="D12">
-        <v>0.7753982252852225</v>
+        <v>0.4156131527442676</v>
       </c>
       <c r="E12">
-        <v>0.9626364794094201</v>
+        <v>0.4688092193800795</v>
       </c>
       <c r="F12">
-        <v>1.075415740518854</v>
+        <v>0.513946990365305</v>
       </c>
       <c r="G12">
-        <v>0.8740398548068428</v>
+        <v>0.4665991506847265</v>
       </c>
       <c r="H12">
-        <v>0.7753982252852225</v>
+        <v>0.4156131527442676</v>
       </c>
       <c r="I12">
-        <v>0.6740447059816734</v>
+        <v>0.359339911382535</v>
       </c>
       <c r="J12">
-        <v>5.545207309741992</v>
+        <v>24.80947364735434</v>
       </c>
       <c r="K12">
-        <v>0.7753982252852225</v>
+        <v>0.4156131527442676</v>
       </c>
       <c r="L12">
-        <v>0.9626364794094201</v>
+        <v>0.4688092193800795</v>
       </c>
       <c r="M12">
-        <v>1.019026109964137</v>
+        <v>0.4913781048726922</v>
       </c>
       <c r="N12">
-        <v>1.019026109964137</v>
+        <v>0.4913781048726922</v>
       </c>
       <c r="O12">
-        <v>0.9040323086366492</v>
+        <v>0.4473653737093065</v>
       </c>
       <c r="P12">
-        <v>0.9378168150711655</v>
+        <v>0.466123120829884</v>
       </c>
       <c r="Q12">
-        <v>0.9378168150711655</v>
+        <v>0.466123120829884</v>
       </c>
       <c r="R12">
-        <v>0.8972121676246798</v>
+        <v>0.4534956288084799</v>
       </c>
       <c r="S12">
-        <v>0.8972121676246798</v>
+        <v>0.4534956288084799</v>
       </c>
       <c r="T12">
-        <v>1.651123719290667</v>
+        <v>4.505630345318543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.762168288515419</v>
+        <v>0.8688943161187923</v>
       </c>
       <c r="D13">
-        <v>1.018632379046457</v>
+        <v>1.432926728859524</v>
       </c>
       <c r="E13">
-        <v>0.8090042491538028</v>
+        <v>1.097243957316242</v>
       </c>
       <c r="F13">
-        <v>1.762168288515419</v>
+        <v>0.8688943161187923</v>
       </c>
       <c r="G13">
-        <v>0.9757486649070839</v>
+        <v>1.029006924383547</v>
       </c>
       <c r="H13">
-        <v>1.018632379046457</v>
+        <v>1.432926728859524</v>
       </c>
       <c r="I13">
-        <v>1.017262321234838</v>
+        <v>0.9093899202682194</v>
       </c>
       <c r="J13">
-        <v>0.5698234401052148</v>
+        <v>0.8254200437347998</v>
       </c>
       <c r="K13">
-        <v>1.018632379046457</v>
+        <v>1.432926728859524</v>
       </c>
       <c r="L13">
-        <v>0.8090042491538028</v>
+        <v>1.097243957316242</v>
       </c>
       <c r="M13">
-        <v>1.285586268834611</v>
+        <v>0.9830691367175171</v>
       </c>
       <c r="N13">
-        <v>1.285586268834611</v>
+        <v>0.9830691367175171</v>
       </c>
       <c r="O13">
-        <v>1.19614495296802</v>
+        <v>0.9585093979010845</v>
       </c>
       <c r="P13">
-        <v>1.196601638905226</v>
+        <v>1.133021667431519</v>
       </c>
       <c r="Q13">
-        <v>1.196601638905226</v>
+        <v>1.133021667431519</v>
       </c>
       <c r="R13">
-        <v>1.152109323940534</v>
+        <v>1.20799793278852</v>
       </c>
       <c r="S13">
-        <v>1.152109323940534</v>
+        <v>1.20799793278852</v>
       </c>
       <c r="T13">
-        <v>1.025439890493803</v>
+        <v>1.027146981780187</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.006236067899999991</v>
+        <v>1.075415740518854</v>
       </c>
       <c r="D14">
-        <v>-0.002792170799999996</v>
+        <v>0.7753982252852225</v>
       </c>
       <c r="E14">
-        <v>0.0080378142</v>
+        <v>0.9626364794094201</v>
       </c>
       <c r="F14">
-        <v>0.006236067899999991</v>
+        <v>1.075415740518854</v>
       </c>
       <c r="G14">
-        <v>-0.005504551799999996</v>
+        <v>0.8740398548068428</v>
       </c>
       <c r="H14">
-        <v>-0.002792170799999996</v>
+        <v>0.7753982252852225</v>
       </c>
       <c r="I14">
-        <v>-0.002063599</v>
+        <v>0.6740447059816734</v>
       </c>
       <c r="J14">
-        <v>45.56474799999992</v>
+        <v>5.545207309741992</v>
       </c>
       <c r="K14">
-        <v>-0.002792170799999996</v>
+        <v>0.7753982252852225</v>
       </c>
       <c r="L14">
-        <v>0.0080378142</v>
+        <v>0.9626364794094201</v>
       </c>
       <c r="M14">
-        <v>0.007136941049999995</v>
+        <v>1.019026109964137</v>
       </c>
       <c r="N14">
-        <v>0.007136941049999995</v>
+        <v>1.019026109964137</v>
       </c>
       <c r="O14">
-        <v>0.004070094366666664</v>
+        <v>0.9040323086366492</v>
       </c>
       <c r="P14">
-        <v>0.003827237099999999</v>
+        <v>0.9378168150711655</v>
       </c>
       <c r="Q14">
-        <v>0.003827237099999999</v>
+        <v>0.9378168150711655</v>
       </c>
       <c r="R14">
-        <v>0.002172385125</v>
+        <v>0.8972121676246798</v>
       </c>
       <c r="S14">
-        <v>0.002172385125</v>
+        <v>0.8972121676246798</v>
       </c>
       <c r="T14">
-        <v>7.594776926749987</v>
+        <v>1.651123719290667</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.0016685823</v>
+        <v>1.762168288515419</v>
       </c>
       <c r="D15">
-        <v>15.190373</v>
+        <v>1.018632379046457</v>
       </c>
       <c r="E15">
-        <v>7.5943258</v>
+        <v>0.8090042491538028</v>
       </c>
       <c r="F15">
-        <v>-0.0016685823</v>
+        <v>1.762168288515419</v>
       </c>
       <c r="G15">
-        <v>0.28534561</v>
+        <v>0.9757486649070839</v>
       </c>
       <c r="H15">
-        <v>15.190373</v>
+        <v>1.018632379046457</v>
       </c>
       <c r="I15">
-        <v>0.0023316888</v>
+        <v>1.017262321234838</v>
       </c>
       <c r="J15">
-        <v>0.0026234374</v>
+        <v>0.5698234401052148</v>
       </c>
       <c r="K15">
-        <v>15.190373</v>
+        <v>1.018632379046457</v>
       </c>
       <c r="L15">
-        <v>7.5943258</v>
+        <v>0.8090042491538028</v>
       </c>
       <c r="M15">
-        <v>3.79632860885</v>
+        <v>1.285586268834611</v>
       </c>
       <c r="N15">
-        <v>3.79632860885</v>
+        <v>1.285586268834611</v>
       </c>
       <c r="O15">
-        <v>2.531662968833333</v>
+        <v>1.19614495296802</v>
       </c>
       <c r="P15">
-        <v>7.594343405899999</v>
+        <v>1.196601638905226</v>
       </c>
       <c r="Q15">
-        <v>7.594343405899999</v>
+        <v>1.196601638905226</v>
       </c>
       <c r="R15">
-        <v>9.493350804424999</v>
+        <v>1.152109323940534</v>
       </c>
       <c r="S15">
-        <v>9.493350804424999</v>
+        <v>1.152109323940534</v>
       </c>
       <c r="T15">
-        <v>3.845555158983333</v>
+        <v>1.025439890493803</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.0016673296</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="D16">
-        <v>15.190373</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="E16">
-        <v>7.5943258</v>
+        <v>0.0080378142</v>
       </c>
       <c r="F16">
-        <v>-0.0016673296</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="G16">
-        <v>0.28534581</v>
+        <v>-0.005504551799999996</v>
       </c>
       <c r="H16">
-        <v>15.190373</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="I16">
-        <v>0.0023322823</v>
+        <v>-0.002063599</v>
       </c>
       <c r="J16">
-        <v>0.0026215904</v>
+        <v>45.56474799999992</v>
       </c>
       <c r="K16">
-        <v>15.190373</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="L16">
-        <v>7.5943258</v>
+        <v>0.0080378142</v>
       </c>
       <c r="M16">
-        <v>3.7963292352</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="N16">
-        <v>3.7963292352</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="O16">
-        <v>2.531663584233333</v>
+        <v>0.004070094366666664</v>
       </c>
       <c r="P16">
-        <v>7.594343823466666</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="Q16">
-        <v>7.594343823466666</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="R16">
-        <v>9.4933511176</v>
+        <v>0.002172385125</v>
       </c>
       <c r="S16">
-        <v>9.4933511176</v>
+        <v>0.002172385125</v>
       </c>
       <c r="T16">
-        <v>3.845555192183333</v>
+        <v>7.594776926749987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>7.055062799999999</v>
+        <v>-0.0016685823</v>
       </c>
       <c r="D17">
-        <v>1.322524E-05</v>
+        <v>15.190373</v>
       </c>
       <c r="E17">
-        <v>0.56171698</v>
+        <v>7.5943258</v>
       </c>
       <c r="F17">
-        <v>7.055062799999999</v>
+        <v>-0.0016685823</v>
       </c>
       <c r="G17">
-        <v>0.043519485</v>
+        <v>0.28534561</v>
       </c>
       <c r="H17">
-        <v>1.322524E-05</v>
+        <v>15.190373</v>
       </c>
       <c r="I17">
-        <v>0.016152412</v>
+        <v>0.0023316888</v>
       </c>
       <c r="J17">
-        <v>0.52710668</v>
+        <v>0.0026234374</v>
       </c>
       <c r="K17">
-        <v>1.322524E-05</v>
+        <v>15.190373</v>
       </c>
       <c r="L17">
-        <v>0.56171698</v>
+        <v>7.5943258</v>
       </c>
       <c r="M17">
-        <v>3.80838989</v>
+        <v>3.79632860885</v>
       </c>
       <c r="N17">
-        <v>3.80838989</v>
+        <v>3.79632860885</v>
       </c>
       <c r="O17">
-        <v>2.544310730666667</v>
+        <v>2.531662968833333</v>
       </c>
       <c r="P17">
-        <v>2.538931001746666</v>
+        <v>7.594343405899999</v>
       </c>
       <c r="Q17">
-        <v>2.538931001746666</v>
+        <v>7.594343405899999</v>
       </c>
       <c r="R17">
-        <v>1.90420155762</v>
+        <v>9.493350804424999</v>
       </c>
       <c r="S17">
-        <v>1.90420155762</v>
+        <v>9.493350804424999</v>
       </c>
       <c r="T17">
-        <v>1.367261930373333</v>
+        <v>3.845555158983333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>-0.001282774489041096</v>
+        <v>-0.0016673296</v>
       </c>
       <c r="D18">
-        <v>5.527592106575345</v>
+        <v>15.190373</v>
       </c>
       <c r="E18">
-        <v>2.762767029589042</v>
+        <v>7.5943258</v>
       </c>
       <c r="F18">
-        <v>-0.001282774489041096</v>
+        <v>-0.0016673296</v>
       </c>
       <c r="G18">
-        <v>2.664938346986302</v>
+        <v>0.28534581</v>
       </c>
       <c r="H18">
-        <v>5.527592106575345</v>
+        <v>15.190373</v>
       </c>
       <c r="I18">
-        <v>-0.0003450262021917807</v>
+        <v>0.0023322823</v>
       </c>
       <c r="J18">
-        <v>0.001272441509589041</v>
+        <v>0.0026215904</v>
       </c>
       <c r="K18">
-        <v>5.527592106575345</v>
+        <v>15.190373</v>
       </c>
       <c r="L18">
-        <v>2.762767029589042</v>
+        <v>7.5943258</v>
       </c>
       <c r="M18">
-        <v>1.38074212755</v>
+        <v>3.7963292352</v>
       </c>
       <c r="N18">
-        <v>1.38074212755</v>
+        <v>3.7963292352</v>
       </c>
       <c r="O18">
-        <v>0.9203797429659364</v>
+        <v>2.531663584233333</v>
       </c>
       <c r="P18">
-        <v>2.763025453891782</v>
+        <v>7.594343823466666</v>
       </c>
       <c r="Q18">
-        <v>2.763025453891782</v>
+        <v>7.594343823466666</v>
       </c>
       <c r="R18">
-        <v>3.454167117062673</v>
+        <v>9.4933511176</v>
       </c>
       <c r="S18">
-        <v>3.454167117062673</v>
+        <v>9.4933511176</v>
       </c>
       <c r="T18">
-        <v>1.825823687328174</v>
+        <v>3.845555192183333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.704099057457684</v>
+        <v>7.055062799999999</v>
       </c>
       <c r="D19">
-        <v>2.104556284347368</v>
+        <v>1.322524E-05</v>
       </c>
       <c r="E19">
-        <v>1.186006267685789</v>
+        <v>0.56171698</v>
       </c>
       <c r="F19">
-        <v>1.704099057457684</v>
+        <v>7.055062799999999</v>
       </c>
       <c r="G19">
-        <v>0.6452948609210527</v>
+        <v>0.043519485</v>
       </c>
       <c r="H19">
-        <v>2.104556284347368</v>
+        <v>1.322524E-05</v>
       </c>
       <c r="I19">
-        <v>0.203107242335279</v>
+        <v>0.016152412</v>
       </c>
       <c r="J19">
-        <v>5.030796045779997</v>
+        <v>0.52710668</v>
       </c>
       <c r="K19">
-        <v>2.104556284347368</v>
+        <v>1.322524E-05</v>
       </c>
       <c r="L19">
-        <v>1.186006267685789</v>
+        <v>0.56171698</v>
       </c>
       <c r="M19">
-        <v>1.445052662571737</v>
+        <v>3.80838989</v>
       </c>
       <c r="N19">
-        <v>1.445052662571737</v>
+        <v>3.80838989</v>
       </c>
       <c r="O19">
-        <v>1.031070855826251</v>
+        <v>2.544310730666667</v>
       </c>
       <c r="P19">
-        <v>1.664887203163614</v>
+        <v>2.538931001746666</v>
       </c>
       <c r="Q19">
-        <v>1.664887203163614</v>
+        <v>2.538931001746666</v>
       </c>
       <c r="R19">
-        <v>1.774804473459553</v>
+        <v>1.90420155762</v>
       </c>
       <c r="S19">
-        <v>1.774804473459553</v>
+        <v>1.90420155762</v>
       </c>
       <c r="T19">
-        <v>1.812309959754528</v>
+        <v>1.367261930373333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.704098948730421</v>
+        <v>-0.001282774489041096</v>
       </c>
       <c r="D20">
-        <v>2.104555982820052</v>
+        <v>5.527592106575345</v>
       </c>
       <c r="E20">
-        <v>1.18601608032579</v>
+        <v>2.762767029589042</v>
       </c>
       <c r="F20">
-        <v>1.704098948730421</v>
+        <v>-0.001282774489041096</v>
       </c>
       <c r="G20">
-        <v>0.6452844076789473</v>
+        <v>2.664938346986302</v>
       </c>
       <c r="H20">
-        <v>2.104555982820052</v>
+        <v>5.527592106575345</v>
       </c>
       <c r="I20">
-        <v>0.2031403127338105</v>
+        <v>-0.0003450262021917807</v>
       </c>
       <c r="J20">
-        <v>5.030796072709995</v>
+        <v>0.001272441509589041</v>
       </c>
       <c r="K20">
-        <v>2.104555982820052</v>
+        <v>5.527592106575345</v>
       </c>
       <c r="L20">
-        <v>1.18601608032579</v>
+        <v>2.762767029589042</v>
       </c>
       <c r="M20">
-        <v>1.445057514528105</v>
+        <v>1.38074212755</v>
       </c>
       <c r="N20">
-        <v>1.445057514528105</v>
+        <v>1.38074212755</v>
       </c>
       <c r="O20">
-        <v>1.031085113930007</v>
+        <v>0.9203797429659364</v>
       </c>
       <c r="P20">
-        <v>1.664890337292088</v>
+        <v>2.763025453891782</v>
       </c>
       <c r="Q20">
-        <v>1.664890337292088</v>
+        <v>2.763025453891782</v>
       </c>
       <c r="R20">
-        <v>1.774806748674079</v>
+        <v>3.454167117062673</v>
       </c>
       <c r="S20">
-        <v>1.774806748674079</v>
+        <v>3.454167117062673</v>
       </c>
       <c r="T20">
-        <v>1.812315300833169</v>
+        <v>1.825823687328174</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4647339410847121</v>
+        <v>1.704099057457684</v>
       </c>
       <c r="D21">
-        <v>1.093682992341114</v>
+        <v>2.104556284347368</v>
       </c>
       <c r="E21">
-        <v>0.5060459281015396</v>
+        <v>1.186006267685789</v>
       </c>
       <c r="F21">
-        <v>0.4647339410847121</v>
+        <v>1.704099057457684</v>
       </c>
       <c r="G21">
-        <v>0.951164204545662</v>
+        <v>0.6452948609210527</v>
       </c>
       <c r="H21">
-        <v>1.093682992341114</v>
+        <v>2.104556284347368</v>
       </c>
       <c r="I21">
-        <v>1.844118206353425</v>
+        <v>0.203107242335279</v>
       </c>
       <c r="J21">
-        <v>0.000866378908943993</v>
+        <v>5.030796045779997</v>
       </c>
       <c r="K21">
-        <v>1.093682992341114</v>
+        <v>2.104556284347368</v>
       </c>
       <c r="L21">
-        <v>0.5060459281015396</v>
+        <v>1.186006267685789</v>
       </c>
       <c r="M21">
-        <v>0.4853899345931258</v>
+        <v>1.445052662571737</v>
       </c>
       <c r="N21">
-        <v>0.4853899345931258</v>
+        <v>1.445052662571737</v>
       </c>
       <c r="O21">
-        <v>0.9382993585132255</v>
+        <v>1.031070855826251</v>
       </c>
       <c r="P21">
-        <v>0.6881542871757887</v>
+        <v>1.664887203163614</v>
       </c>
       <c r="Q21">
-        <v>0.6881542871757887</v>
+        <v>1.664887203163614</v>
       </c>
       <c r="R21">
-        <v>0.7895364634671201</v>
+        <v>1.774804473459553</v>
       </c>
       <c r="S21">
-        <v>0.7895364634671201</v>
+        <v>1.774804473459553</v>
       </c>
       <c r="T21">
-        <v>0.8101019418892328</v>
+        <v>1.812309959754528</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.978024699327322</v>
+        <v>1.704098948730421</v>
       </c>
       <c r="D22">
-        <v>0.3818635157819933</v>
+        <v>2.104555982820052</v>
       </c>
       <c r="E22">
-        <v>1.292266914514485</v>
+        <v>1.18601608032579</v>
       </c>
       <c r="F22">
-        <v>1.978024699327322</v>
+        <v>1.704098948730421</v>
       </c>
       <c r="G22">
-        <v>0.7842549190120931</v>
+        <v>0.6452844076789473</v>
       </c>
       <c r="H22">
-        <v>0.3818635157819933</v>
+        <v>2.104555982820052</v>
       </c>
       <c r="I22">
-        <v>0.8117844049184391</v>
+        <v>0.2031403127338105</v>
       </c>
       <c r="J22">
-        <v>0.4346537744456072</v>
+        <v>5.030796072709995</v>
       </c>
       <c r="K22">
-        <v>0.3818635157819933</v>
+        <v>2.104555982820052</v>
       </c>
       <c r="L22">
-        <v>1.292266914514485</v>
+        <v>1.18601608032579</v>
       </c>
       <c r="M22">
-        <v>1.635145806920903</v>
+        <v>1.445057514528105</v>
       </c>
       <c r="N22">
-        <v>1.635145806920903</v>
+        <v>1.445057514528105</v>
       </c>
       <c r="O22">
-        <v>1.360692006253415</v>
+        <v>1.031085113930007</v>
       </c>
       <c r="P22">
-        <v>1.217385043207933</v>
+        <v>1.664890337292088</v>
       </c>
       <c r="Q22">
-        <v>1.217385043207934</v>
+        <v>1.664890337292088</v>
       </c>
       <c r="R22">
-        <v>1.008504661351449</v>
+        <v>1.774806748674079</v>
       </c>
       <c r="S22">
-        <v>1.008504661351449</v>
+        <v>1.774806748674079</v>
       </c>
       <c r="T22">
-        <v>0.9471413713333233</v>
+        <v>1.812315300833169</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.2731973417197705</v>
+        <v>0.4647339410847121</v>
       </c>
       <c r="D23">
-        <v>1.83906027372987</v>
+        <v>1.093682992341114</v>
       </c>
       <c r="E23">
-        <v>0.5352861205437532</v>
+        <v>0.5060459281015396</v>
       </c>
       <c r="F23">
-        <v>0.2731973417197705</v>
+        <v>0.4647339410847121</v>
       </c>
       <c r="G23">
-        <v>1.076091487110441</v>
+        <v>0.951164204545662</v>
       </c>
       <c r="H23">
-        <v>1.83906027372987</v>
+        <v>1.093682992341114</v>
       </c>
       <c r="I23">
-        <v>1.280450305905803</v>
+        <v>1.844118206353425</v>
       </c>
       <c r="J23">
-        <v>0.001005879704710416</v>
+        <v>0.000866378908943993</v>
       </c>
       <c r="K23">
-        <v>1.83906027372987</v>
+        <v>1.093682992341114</v>
       </c>
       <c r="L23">
-        <v>0.5352861205437532</v>
+        <v>0.5060459281015396</v>
       </c>
       <c r="M23">
-        <v>0.4042417311317619</v>
+        <v>0.4853899345931258</v>
       </c>
       <c r="N23">
-        <v>0.4042417311317619</v>
+        <v>0.4853899345931258</v>
       </c>
       <c r="O23">
-        <v>0.6963112560564423</v>
+        <v>0.9382993585132255</v>
       </c>
       <c r="P23">
-        <v>0.8825145786644647</v>
+        <v>0.6881542871757887</v>
       </c>
       <c r="Q23">
-        <v>0.8825145786644647</v>
+        <v>0.6881542871757887</v>
       </c>
       <c r="R23">
-        <v>1.121651002430816</v>
+        <v>0.7895364634671201</v>
       </c>
       <c r="S23">
-        <v>1.121651002430816</v>
+        <v>0.7895364634671201</v>
       </c>
       <c r="T23">
-        <v>0.8341819014523915</v>
+        <v>0.8101019418892328</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.598588566013339</v>
+        <v>1.978024699327322</v>
       </c>
       <c r="D24">
-        <v>0.9996285566817857</v>
+        <v>0.3818635157819933</v>
       </c>
       <c r="E24">
-        <v>1.25574643306191</v>
+        <v>1.292266914514485</v>
       </c>
       <c r="F24">
-        <v>1.598588566013339</v>
+        <v>1.978024699327322</v>
       </c>
       <c r="G24">
-        <v>1.063615239376096</v>
+        <v>0.7842549190120931</v>
       </c>
       <c r="H24">
-        <v>0.9996285566817857</v>
+        <v>0.3818635157819933</v>
       </c>
       <c r="I24">
-        <v>0.6971098454197413</v>
+        <v>0.8117844049184391</v>
       </c>
       <c r="J24">
-        <v>0.4158317650499002</v>
+        <v>0.4346537744456072</v>
       </c>
       <c r="K24">
-        <v>0.9996285566817857</v>
+        <v>0.3818635157819933</v>
       </c>
       <c r="L24">
-        <v>1.25574643306191</v>
+        <v>1.292266914514485</v>
       </c>
       <c r="M24">
-        <v>1.427167499537624</v>
+        <v>1.635145806920903</v>
       </c>
       <c r="N24">
-        <v>1.427167499537624</v>
+        <v>1.635145806920903</v>
       </c>
       <c r="O24">
-        <v>1.183814948164997</v>
+        <v>1.360692006253415</v>
       </c>
       <c r="P24">
-        <v>1.284654518585678</v>
+        <v>1.217385043207933</v>
       </c>
       <c r="Q24">
-        <v>1.284654518585678</v>
+        <v>1.217385043207934</v>
       </c>
       <c r="R24">
-        <v>1.213398028109705</v>
+        <v>1.008504661351449</v>
       </c>
       <c r="S24">
-        <v>1.213398028109705</v>
+        <v>1.008504661351449</v>
       </c>
       <c r="T24">
-        <v>1.005086734267129</v>
+        <v>0.9471413713333233</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.464823868231119</v>
+        <v>0.2731973417197705</v>
       </c>
       <c r="D25">
-        <v>1.093566450401579</v>
+        <v>1.83906027372987</v>
       </c>
       <c r="E25">
-        <v>0.5060286194726901</v>
+        <v>0.5352861205437532</v>
       </c>
       <c r="F25">
-        <v>0.464823868231119</v>
+        <v>0.2731973417197705</v>
       </c>
       <c r="G25">
-        <v>0.951132858028775</v>
+        <v>1.076091487110441</v>
       </c>
       <c r="H25">
-        <v>1.093566450401579</v>
+        <v>1.83906027372987</v>
       </c>
       <c r="I25">
-        <v>1.844139104102732</v>
+        <v>1.280450305905803</v>
       </c>
       <c r="J25">
-        <v>0.0008663007739613707</v>
+        <v>0.001005879704710416</v>
       </c>
       <c r="K25">
-        <v>1.093566450401579</v>
+        <v>1.83906027372987</v>
       </c>
       <c r="L25">
-        <v>0.5060286194726901</v>
+        <v>0.5352861205437532</v>
       </c>
       <c r="M25">
-        <v>0.4854262438519046</v>
+        <v>0.4042417311317619</v>
       </c>
       <c r="N25">
-        <v>0.4854262438519046</v>
+        <v>0.4042417311317619</v>
       </c>
       <c r="O25">
-        <v>0.9383305306021804</v>
+        <v>0.6963112560564423</v>
       </c>
       <c r="P25">
-        <v>0.6881396460351293</v>
+        <v>0.8825145786644647</v>
       </c>
       <c r="Q25">
-        <v>0.6881396460351291</v>
+        <v>0.8825145786644647</v>
       </c>
       <c r="R25">
-        <v>0.7894963471267415</v>
+        <v>1.121651002430816</v>
       </c>
       <c r="S25">
-        <v>0.7894963471267415</v>
+        <v>1.121651002430816</v>
       </c>
       <c r="T25">
-        <v>0.8100928668351427</v>
+        <v>0.8341819014523915</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.978036518823529</v>
+        <v>1.598588566013339</v>
       </c>
       <c r="D26">
-        <v>0.3818788697583615</v>
+        <v>0.9996285566817857</v>
       </c>
       <c r="E26">
-        <v>1.292254422077881</v>
+        <v>1.25574643306191</v>
       </c>
       <c r="F26">
-        <v>1.978036518823529</v>
+        <v>1.598588566013339</v>
       </c>
       <c r="G26">
-        <v>0.7842685882438342</v>
+        <v>1.063615239376096</v>
       </c>
       <c r="H26">
-        <v>0.3818788697583615</v>
+        <v>0.9996285566817857</v>
       </c>
       <c r="I26">
-        <v>0.8118248561260151</v>
+        <v>0.6971098454197413</v>
       </c>
       <c r="J26">
-        <v>0.4346360325734004</v>
+        <v>0.4158317650499002</v>
       </c>
       <c r="K26">
-        <v>0.3818788697583615</v>
+        <v>0.9996285566817857</v>
       </c>
       <c r="L26">
-        <v>1.292254422077881</v>
+        <v>1.25574643306191</v>
       </c>
       <c r="M26">
-        <v>1.635145470450705</v>
+        <v>1.427167499537624</v>
       </c>
       <c r="N26">
-        <v>1.635145470450705</v>
+        <v>1.427167499537624</v>
       </c>
       <c r="O26">
-        <v>1.360705265675809</v>
+        <v>1.183814948164997</v>
       </c>
       <c r="P26">
-        <v>1.217389936886591</v>
+        <v>1.284654518585678</v>
       </c>
       <c r="Q26">
-        <v>1.217389936886591</v>
+        <v>1.284654518585678</v>
       </c>
       <c r="R26">
-        <v>1.008512170104533</v>
+        <v>1.213398028109705</v>
       </c>
       <c r="S26">
-        <v>1.008512170104533</v>
+        <v>1.213398028109705</v>
       </c>
       <c r="T26">
-        <v>0.9471498812671703</v>
+        <v>1.005086734267129</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.006186228815596925</v>
+        <v>0.464823868231119</v>
       </c>
       <c r="D27">
-        <v>1.234553276721798</v>
+        <v>1.093566450401579</v>
       </c>
       <c r="E27">
-        <v>0.2736592337854815</v>
+        <v>0.5060286194726901</v>
       </c>
       <c r="F27">
-        <v>0.006186228815596925</v>
+        <v>0.464823868231119</v>
       </c>
       <c r="G27">
-        <v>0.6492044884615863</v>
+        <v>0.951132858028775</v>
       </c>
       <c r="H27">
-        <v>1.234553276721798</v>
+        <v>1.093566450401579</v>
       </c>
       <c r="I27">
-        <v>1.68481113040592</v>
+        <v>1.844139104102732</v>
       </c>
       <c r="J27">
-        <v>5.329777815307493</v>
+        <v>0.0008663007739613707</v>
       </c>
       <c r="K27">
-        <v>1.234553276721798</v>
+        <v>1.093566450401579</v>
       </c>
       <c r="L27">
-        <v>0.2736592337854815</v>
+        <v>0.5060286194726901</v>
       </c>
       <c r="M27">
-        <v>0.1399227313005392</v>
+        <v>0.4854262438519046</v>
       </c>
       <c r="N27">
-        <v>0.1399227313005392</v>
+        <v>0.4854262438519046</v>
       </c>
       <c r="O27">
-        <v>0.6548855310023327</v>
+        <v>0.9383305306021804</v>
       </c>
       <c r="P27">
-        <v>0.5047995797742922</v>
+        <v>0.6881396460351293</v>
       </c>
       <c r="Q27">
-        <v>0.5047995797742922</v>
+        <v>0.6881396460351291</v>
       </c>
       <c r="R27">
-        <v>0.6872380040111687</v>
+        <v>0.7894963471267415</v>
       </c>
       <c r="S27">
-        <v>0.6872380040111687</v>
+        <v>0.7894963471267415</v>
       </c>
       <c r="T27">
-        <v>1.529698695582979</v>
+        <v>0.8100928668351427</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>3.733980303671041</v>
+        <v>1.978036518823529</v>
       </c>
       <c r="D28">
-        <v>1.053261801066988</v>
+        <v>0.3818788697583615</v>
       </c>
       <c r="E28">
-        <v>0.2782912424163004</v>
+        <v>1.292254422077881</v>
       </c>
       <c r="F28">
-        <v>3.733980303671041</v>
+        <v>1.978036518823529</v>
       </c>
       <c r="G28">
-        <v>1.311870347540639</v>
+        <v>0.7842685882438342</v>
       </c>
       <c r="H28">
-        <v>1.053261801066988</v>
+        <v>0.3818788697583615</v>
       </c>
       <c r="I28">
-        <v>0.04332866463765057</v>
+        <v>0.8118248561260151</v>
       </c>
       <c r="J28">
-        <v>0.7292496527994605</v>
+        <v>0.4346360325734004</v>
       </c>
       <c r="K28">
-        <v>1.053261801066988</v>
+        <v>0.3818788697583615</v>
       </c>
       <c r="L28">
-        <v>0.2782912424163004</v>
+        <v>1.292254422077881</v>
       </c>
       <c r="M28">
-        <v>2.00613577304367</v>
+        <v>1.635145470450705</v>
       </c>
       <c r="N28">
-        <v>2.00613577304367</v>
+        <v>1.635145470450705</v>
       </c>
       <c r="O28">
-        <v>1.35186673690833</v>
+        <v>1.360705265675809</v>
       </c>
       <c r="P28">
-        <v>1.68851111571811</v>
+        <v>1.217389936886591</v>
       </c>
       <c r="Q28">
-        <v>1.68851111571811</v>
+        <v>1.217389936886591</v>
       </c>
       <c r="R28">
-        <v>1.52969878705533</v>
+        <v>1.008512170104533</v>
       </c>
       <c r="S28">
-        <v>1.52969878705533</v>
+        <v>1.008512170104533</v>
       </c>
       <c r="T28">
-        <v>1.19166366868868</v>
+        <v>0.9471498812671703</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.006186228815596925</v>
+      </c>
+      <c r="D29">
+        <v>1.234553276721798</v>
+      </c>
+      <c r="E29">
+        <v>0.2736592337854815</v>
+      </c>
+      <c r="F29">
+        <v>0.006186228815596925</v>
+      </c>
+      <c r="G29">
+        <v>0.6492044884615863</v>
+      </c>
+      <c r="H29">
+        <v>1.234553276721798</v>
+      </c>
+      <c r="I29">
+        <v>1.68481113040592</v>
+      </c>
+      <c r="J29">
+        <v>5.329777815307493</v>
+      </c>
+      <c r="K29">
+        <v>1.234553276721798</v>
+      </c>
+      <c r="L29">
+        <v>0.2736592337854815</v>
+      </c>
+      <c r="M29">
+        <v>0.1399227313005392</v>
+      </c>
+      <c r="N29">
+        <v>0.1399227313005392</v>
+      </c>
+      <c r="O29">
+        <v>0.6548855310023327</v>
+      </c>
+      <c r="P29">
+        <v>0.5047995797742922</v>
+      </c>
+      <c r="Q29">
+        <v>0.5047995797742922</v>
+      </c>
+      <c r="R29">
+        <v>0.6872380040111687</v>
+      </c>
+      <c r="S29">
+        <v>0.6872380040111687</v>
+      </c>
+      <c r="T29">
+        <v>1.529698695582979</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>3.733980303671041</v>
+      </c>
+      <c r="D30">
+        <v>1.053261801066988</v>
+      </c>
+      <c r="E30">
+        <v>0.2782912424163004</v>
+      </c>
+      <c r="F30">
+        <v>3.733980303671041</v>
+      </c>
+      <c r="G30">
+        <v>1.311870347540639</v>
+      </c>
+      <c r="H30">
+        <v>1.053261801066988</v>
+      </c>
+      <c r="I30">
+        <v>0.04332866463765057</v>
+      </c>
+      <c r="J30">
+        <v>0.7292496527994605</v>
+      </c>
+      <c r="K30">
+        <v>1.053261801066988</v>
+      </c>
+      <c r="L30">
+        <v>0.2782912424163004</v>
+      </c>
+      <c r="M30">
+        <v>2.00613577304367</v>
+      </c>
+      <c r="N30">
+        <v>2.00613577304367</v>
+      </c>
+      <c r="O30">
+        <v>1.35186673690833</v>
+      </c>
+      <c r="P30">
+        <v>1.68851111571811</v>
+      </c>
+      <c r="Q30">
+        <v>1.68851111571811</v>
+      </c>
+      <c r="R30">
+        <v>1.52969878705533</v>
+      </c>
+      <c r="S30">
+        <v>1.52969878705533</v>
+      </c>
+      <c r="T30">
+        <v>1.19166366868868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>6.836824039540042</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.913095572758936</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.1616984994655236</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>6.836824039540042</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.4012800574872188</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.913095572758936</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.07263423013787461</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.004628171478703889</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.913095572758936</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.1616984994655236</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>3.499261269502783</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>3.499261269502783</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>2.357052256381147</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>2.970539370588167</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>2.970539370588167</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>2.706178421130859</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>2.706178421130859</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.565026761811383</v>
       </c>
     </row>
